--- a/trades.xlsx
+++ b/trades.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J273"/>
+  <dimension ref="A1:J255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,22 +507,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2002.303708970818</v>
+        <v>2002.303217978408</v>
       </c>
       <c r="F2" t="n">
-        <v>49.94247353784303</v>
+        <v>49.94248578442747</v>
       </c>
       <c r="G2" t="n">
-        <v>75.17434823489843</v>
+        <v>75.1743328466484</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8096433043948874</v>
+        <v>0.8096431085933117</v>
       </c>
       <c r="I2" t="n">
-        <v>50333.7239448382</v>
+        <v>50333.65630751372</v>
       </c>
       <c r="J2" t="n">
-        <v>548861.9149386098</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="3">
@@ -543,22 +543,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1882.467729629831</v>
+        <v>1882.467434817769</v>
       </c>
       <c r="F3" t="n">
-        <v>47.8029442861659</v>
+        <v>47.80295177255545</v>
       </c>
       <c r="G3" t="n">
-        <v>75.17434823489843</v>
+        <v>75.1743328466484</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8206217487315721</v>
+        <v>0.8206216211174993</v>
       </c>
       <c r="I3" t="n">
-        <v>51348.89304234133</v>
+        <v>51348.84197606993</v>
       </c>
       <c r="J3" t="n">
-        <v>741547.2010232925</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="4">
@@ -579,22 +579,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1619.902499562528</v>
+        <v>1619.902618974873</v>
       </c>
       <c r="F4" t="n">
-        <v>49.98912069360277</v>
+        <v>49.98911700861697</v>
       </c>
       <c r="G4" t="n">
-        <v>75.17434823489843</v>
+        <v>75.1743328466484</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8075652771476544</v>
+        <v>0.8075654108563771</v>
       </c>
       <c r="I4" t="n">
-        <v>40645.39415293498</v>
+        <v>40645.37822215209</v>
       </c>
       <c r="J4" t="n">
-        <v>903815.4908916624</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="5">
@@ -615,22 +615,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1443.657650326351</v>
+        <v>1443.657759531622</v>
       </c>
       <c r="F5" t="n">
-        <v>50.47569913966922</v>
+        <v>50.47569532144265</v>
       </c>
       <c r="G5" t="n">
-        <v>75.17434823489843</v>
+        <v>75.1743328466484</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8132852774998237</v>
+        <v>0.8132854081316621</v>
       </c>
       <c r="I5" t="n">
-        <v>35520.73619038164</v>
+        <v>35520.72220195759</v>
       </c>
       <c r="J5" t="n">
-        <v>1047726.59249098</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="6">
@@ -651,22 +651,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1295.519029143532</v>
+        <v>1295.519224806069</v>
       </c>
       <c r="F6" t="n">
-        <v>50.6156653186311</v>
+        <v>50.61565767413668</v>
       </c>
       <c r="G6" t="n">
-        <v>75.17434823489843</v>
+        <v>75.1743328466484</v>
       </c>
       <c r="H6" t="n">
-        <v>0.822477679261821</v>
+        <v>0.8224778728974312</v>
       </c>
       <c r="I6" t="n">
-        <v>31694.50380042428</v>
+        <v>31694.49857998792</v>
       </c>
       <c r="J6" t="n">
-        <v>1176689.157684876</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="7">
@@ -687,22 +687,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1172.288722716031</v>
+        <v>1172.288899813793</v>
       </c>
       <c r="F7" t="n">
-        <v>50.33572702322829</v>
+        <v>50.33571941900663</v>
       </c>
       <c r="G7" t="n">
-        <v>75.17434823489843</v>
+        <v>75.1743328466484</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8294909074001449</v>
+        <v>0.8294910291707324</v>
       </c>
       <c r="I7" t="n">
-        <v>29007.87798341447</v>
+        <v>29007.8732630565</v>
       </c>
       <c r="J7" t="n">
-        <v>1293712.918790748</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="8">
@@ -723,22 +723,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>943.8280883418224</v>
+        <v>943.8278284307459</v>
       </c>
       <c r="F8" t="n">
-        <v>56.26006396756592</v>
+        <v>56.26007946044858</v>
       </c>
       <c r="G8" t="n">
-        <v>75.17434823489843</v>
+        <v>75.1743328466484</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8627635526588949</v>
+        <v>0.8627636705973147</v>
       </c>
       <c r="I8" t="n">
-        <v>17763.14318565664</v>
+        <v>17763.10916573038</v>
       </c>
       <c r="J8" t="n">
-        <v>1382339.033786558</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="9">
@@ -759,22 +759,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>861.6227586814036</v>
+        <v>861.6229365931675</v>
       </c>
       <c r="F9" t="n">
-        <v>55.45722626523281</v>
+        <v>55.45721481417629</v>
       </c>
       <c r="G9" t="n">
-        <v>75.17434823489843</v>
+        <v>75.1743328466484</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8467807259938952</v>
+        <v>0.8467808959734087</v>
       </c>
       <c r="I9" t="n">
-        <v>16907.75611312571</v>
+        <v>16907.75622851302</v>
       </c>
       <c r="J9" t="n">
-        <v>1463937.754296278</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>766.402141533948</v>
+        <v>766.4019284063977</v>
       </c>
       <c r="F10" t="n">
-        <v>56.10489875201078</v>
+        <v>56.10491435413702</v>
       </c>
       <c r="G10" t="n">
-        <v>75.17434823489843</v>
+        <v>75.1743328466484</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8427926759612238</v>
+        <v>0.8427923737093216</v>
       </c>
       <c r="I10" t="n">
-        <v>14542.84969471397</v>
+        <v>14542.82191417392</v>
       </c>
       <c r="J10" t="n">
-        <v>1536022.368239792</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="11">
@@ -837,16 +837,16 @@
         <v>53.16336509588768</v>
       </c>
       <c r="G11" t="n">
-        <v>75.17434823489843</v>
+        <v>75.1743328466484</v>
       </c>
       <c r="H11" t="n">
-        <v>0.822539230532471</v>
+        <v>0.82253915725553</v>
       </c>
       <c r="I11" t="n">
-        <v>15951.76067410594</v>
+        <v>15951.74948814643</v>
       </c>
       <c r="J11" t="n">
-        <v>1606619.537822363</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="12">
@@ -867,22 +867,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1621.151791333272</v>
+        <v>1621.151001750429</v>
       </c>
       <c r="F12" t="n">
         <v>41.35187387732348</v>
       </c>
       <c r="G12" t="n">
-        <v>49.40971166416277</v>
+        <v>49.40971549072617</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8096433043948874</v>
+        <v>0.8096431085933117</v>
       </c>
       <c r="I12" t="n">
-        <v>-10657.41899082163</v>
+        <v>-13163.10376571905</v>
       </c>
       <c r="J12" t="n">
-        <v>1595962.118831541</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="13">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1544.793960219584</v>
+        <v>1544.793478061058</v>
       </c>
       <c r="F13" t="n">
         <v>40.15346976011048</v>
       </c>
       <c r="G13" t="n">
-        <v>49.40971166416277</v>
+        <v>49.40971549072617</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8206217487315721</v>
+        <v>0.8206216211174993</v>
       </c>
       <c r="I13" t="n">
-        <v>-11812.3547193657</v>
+        <v>-14394.39779378929</v>
       </c>
       <c r="J13" t="n">
-        <v>1584149.764112175</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="14">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1308.177011011391</v>
+        <v>1308.177324039765</v>
       </c>
       <c r="F14" t="n">
-        <v>41.27698218508439</v>
+        <v>41.27698614818551</v>
       </c>
       <c r="G14" t="n">
-        <v>49.40971166416277</v>
+        <v>49.40971549072617</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8075652771476544</v>
+        <v>0.8075654108563771</v>
       </c>
       <c r="I14" t="n">
-        <v>-8656.975044548111</v>
+        <v>-10719.8479452048</v>
       </c>
       <c r="J14" t="n">
-        <v>1575492.789067627</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="15">
@@ -975,22 +975,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1174.10551276041</v>
+        <v>1174.105790163116</v>
       </c>
       <c r="F15" t="n">
-        <v>41.9715086768054</v>
+        <v>41.97151241211809</v>
       </c>
       <c r="G15" t="n">
-        <v>49.40971166416277</v>
+        <v>49.40971549072617</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8132852774998237</v>
+        <v>0.8132854081316621</v>
       </c>
       <c r="I15" t="n">
-        <v>-7161.587158510698</v>
+        <v>-8805.752594312826</v>
       </c>
       <c r="J15" t="n">
-        <v>1568331.201909116</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="16">
@@ -1011,22 +1011,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1065.5354845295</v>
+        <v>1065.535896316225</v>
       </c>
       <c r="F16" t="n">
-        <v>42.55709493975646</v>
+        <v>42.55709872959242</v>
       </c>
       <c r="G16" t="n">
-        <v>49.40971166416277</v>
+        <v>49.40971549072617</v>
       </c>
       <c r="H16" t="n">
-        <v>0.822477679261821</v>
+        <v>0.8224778728974312</v>
       </c>
       <c r="I16" t="n">
-        <v>-6059.617488794132</v>
+        <v>-7367.518924538913</v>
       </c>
       <c r="J16" t="n">
-        <v>1562271.584420322</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="17">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>972.402836340677</v>
+        <v>972.4031259919691</v>
       </c>
       <c r="F17" t="n">
         <v>42.68646903963432</v>
       </c>
       <c r="G17" t="n">
-        <v>49.40971166416277</v>
+        <v>49.40971549072617</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8294909074001449</v>
+        <v>0.8294910291707324</v>
       </c>
       <c r="I17" t="n">
-        <v>-5472.780168368618</v>
+        <v>-6597.763568103075</v>
       </c>
       <c r="J17" t="n">
-        <v>1556798.804251954</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="18">
@@ -1083,22 +1083,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>814.3004745970441</v>
+        <v>814.3003616688029</v>
       </c>
       <c r="F18" t="n">
-        <v>49.51230506130215</v>
+        <v>49.5123252357178</v>
       </c>
       <c r="G18" t="n">
-        <v>49.40971166416277</v>
+        <v>49.40971549072617</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8627635526588949</v>
+        <v>0.8627636705973147</v>
       </c>
       <c r="I18" t="n">
-        <v>28.68594979188779</v>
+        <v>33.26221596486016</v>
       </c>
       <c r="J18" t="n">
-        <v>1556827.490201746</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="19">
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>729.6055451291018</v>
+        <v>729.6058422396019</v>
       </c>
       <c r="F19" t="n">
         <v>47.91447591077834</v>
       </c>
       <c r="G19" t="n">
-        <v>49.40971166416277</v>
+        <v>49.40971549072617</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8467807259938952</v>
+        <v>0.8467808959734087</v>
       </c>
       <c r="I19" t="n">
-        <v>-961.938075082443</v>
+        <v>-1135.997554434612</v>
       </c>
       <c r="J19" t="n">
-        <v>1555865.552126663</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="20">
@@ -1155,22 +1155,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>645.9181117258086</v>
+        <v>645.9177004570295</v>
       </c>
       <c r="F20" t="n">
-        <v>48.22993800666783</v>
+        <v>48.22993388106933</v>
       </c>
       <c r="G20" t="n">
-        <v>49.40971166416277</v>
+        <v>49.40971549072617</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8427926759612238</v>
+        <v>0.8427923737093216</v>
       </c>
       <c r="I20" t="n">
-        <v>-675.8611163686452</v>
+        <v>-801.9350866135479</v>
       </c>
       <c r="J20" t="n">
-        <v>1555189.691010295</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="21">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>598.6649563619372</v>
+        <v>598.6649030291172</v>
       </c>
       <c r="F21" t="n">
-        <v>44.65710032964509</v>
+        <v>44.65709641331063</v>
       </c>
       <c r="G21" t="n">
-        <v>49.40971166416277</v>
+        <v>49.40971549072617</v>
       </c>
       <c r="H21" t="n">
-        <v>0.822539230532471</v>
+        <v>0.82253915725553</v>
       </c>
       <c r="I21" t="n">
-        <v>-2370.719844165442</v>
+        <v>-2882.2010672815</v>
       </c>
       <c r="J21" t="n">
-        <v>1552818.971166129</v>
+        <v>1238262.290371015</v>
       </c>
     </row>
     <row r="22">
@@ -1227,22 +1227,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1613.621377243421</v>
+        <v>1286.747972045178</v>
       </c>
       <c r="F22" t="n">
-        <v>96.23192857167263</v>
+        <v>96.23192087902814</v>
       </c>
       <c r="G22" t="n">
-        <v>84.72620918476228</v>
+        <v>84.72622439165002</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9316343843970876</v>
+        <v>0.9316343011716834</v>
       </c>
       <c r="I22" t="n">
-        <v>-18736.76979122427</v>
+        <v>-14941.20824386987</v>
       </c>
       <c r="J22" t="n">
-        <v>350296.1675710418</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="23">
@@ -1263,22 +1263,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1453.52343772731</v>
+        <v>1159.081098525553</v>
       </c>
       <c r="F23" t="n">
-        <v>96.13487718250822</v>
+        <v>96.13488477769805</v>
       </c>
       <c r="G23" t="n">
-        <v>84.72620918476228</v>
+        <v>84.72622439165002</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9440906304214084</v>
+        <v>0.9440903214809303</v>
       </c>
       <c r="I23" t="n">
-        <v>-16736.70574152302</v>
+        <v>-13346.31831951775</v>
       </c>
       <c r="J23" t="n">
-        <v>456557.0532558078</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="24">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1304.949597890032</v>
+        <v>1040.604323814976</v>
       </c>
       <c r="F24" t="n">
-        <v>96.35881789396224</v>
+        <v>96.35880253283699</v>
       </c>
       <c r="G24" t="n">
-        <v>84.72620918476228</v>
+        <v>84.72622439165002</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9444923453554374</v>
+        <v>0.9444925725416999</v>
       </c>
       <c r="I24" t="n">
-        <v>-15318.17234824058</v>
+        <v>-12215.11920513782</v>
       </c>
       <c r="J24" t="n">
-        <v>551664.1092232115</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="25">
@@ -1335,22 +1335,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1192.771309092951</v>
+        <v>951.1499798183859</v>
       </c>
       <c r="F25" t="n">
         <v>94.86591587993634</v>
       </c>
       <c r="G25" t="n">
-        <v>84.72620918476228</v>
+        <v>84.72622439165002</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9387976050404147</v>
+        <v>0.9387978395137264</v>
       </c>
       <c r="I25" t="n">
-        <v>-12220.67496792606</v>
+        <v>-9745.101537723447</v>
       </c>
       <c r="J25" t="n">
-        <v>640376.1019597729</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="26">
@@ -1371,22 +1371,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1070.733147415711</v>
+        <v>853.8332568795598</v>
       </c>
       <c r="F26" t="n">
         <v>95.09733072437051</v>
       </c>
       <c r="G26" t="n">
-        <v>84.72620918476228</v>
+        <v>84.72622439165002</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9430510047574026</v>
+        <v>0.9430507698081515</v>
       </c>
       <c r="I26" t="n">
-        <v>-11218.10255912184</v>
+        <v>-8945.623082655251</v>
       </c>
       <c r="J26" t="n">
-        <v>719763.7610788672</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="27">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>985.6529772988002</v>
+        <v>785.9877626818603</v>
       </c>
       <c r="F27" t="n">
-        <v>92.96248470905529</v>
+        <v>92.96250026130642</v>
       </c>
       <c r="G27" t="n">
-        <v>84.72620918476228</v>
+        <v>84.72622439165002</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9668670906264205</v>
+        <v>0.9668667652506504</v>
       </c>
       <c r="I27" t="n">
-        <v>-8222.497792795391</v>
+        <v>-6556.854263059417</v>
       </c>
       <c r="J27" t="n">
-        <v>794947.515323851</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="28">
@@ -1443,22 +1443,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>912.1598548776617</v>
+        <v>727.3821911962287</v>
       </c>
       <c r="F28" t="n">
-        <v>90.39470528424758</v>
+        <v>90.39472811775127</v>
       </c>
       <c r="G28" t="n">
-        <v>84.72620918476228</v>
+        <v>84.72622439165002</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9766067801049277</v>
+        <v>0.9766067003330104</v>
       </c>
       <c r="I28" t="n">
-        <v>-5267.179387823983</v>
+        <v>-4200.204094532741</v>
       </c>
       <c r="J28" t="n">
-        <v>866867.5778019914</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="29">
@@ -1479,22 +1479,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>810.4563030596714</v>
+        <v>646.2811046623202</v>
       </c>
       <c r="F29" t="n">
-        <v>91.55172468353263</v>
+        <v>91.55171720714061</v>
       </c>
       <c r="G29" t="n">
-        <v>84.72620918476228</v>
+        <v>84.72622439165002</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9840721497172984</v>
+        <v>0.9840723908798622</v>
       </c>
       <c r="I29" t="n">
-        <v>-5617.61567044508</v>
+        <v>-4479.633234027118</v>
       </c>
       <c r="J29" t="n">
-        <v>929831.0187868539</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="30">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>720.9043808819076</v>
+        <v>574.8698333723883</v>
       </c>
       <c r="F30" t="n">
-        <v>92.61912124525476</v>
+        <v>92.61911362936364</v>
       </c>
       <c r="G30" t="n">
-        <v>84.72620918476228</v>
+        <v>84.72622439165002</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9822233482227812</v>
+        <v>0.9822234275325031</v>
       </c>
       <c r="I30" t="n">
-        <v>-5766.384251545686</v>
+        <v>-4598.267109034018</v>
       </c>
       <c r="J30" t="n">
-        <v>985067.7805428993</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="31">
@@ -1551,22 +1551,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>641.4347298252464</v>
+        <v>511.4984540848172</v>
       </c>
       <c r="F31" t="n">
-        <v>93.67162120814709</v>
+        <v>93.6716134777255</v>
       </c>
       <c r="G31" t="n">
-        <v>84.72620918476228</v>
+        <v>84.72622439165002</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9730673574455682</v>
+        <v>0.9730671185617128</v>
       </c>
       <c r="I31" t="n">
-        <v>-5805.830860767274</v>
+        <v>-4629.724354710769</v>
       </c>
       <c r="J31" t="n">
-        <v>1033540.349863305</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="32">
@@ -1587,22 +1587,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>581.6608571671873</v>
+        <v>463.832976268483</v>
       </c>
       <c r="F32" t="n">
-        <v>92.95502137137183</v>
+        <v>92.95502914242103</v>
       </c>
       <c r="G32" t="n">
-        <v>84.72620918476228</v>
+        <v>84.72622439165002</v>
       </c>
       <c r="H32" t="n">
-        <v>1.000949921577889</v>
+        <v>1.000950244013168</v>
       </c>
       <c r="I32" t="n">
-        <v>-4847.980349254774</v>
+        <v>-3865.91451971681</v>
       </c>
       <c r="J32" t="n">
-        <v>1077912.686573662</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="33">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>534.2327923767698</v>
+        <v>426.0124832784631</v>
       </c>
       <c r="F33" t="n">
-        <v>91.07398464692089</v>
+        <v>91.07399223155724</v>
       </c>
       <c r="G33" t="n">
-        <v>84.72620918476228</v>
+        <v>84.72622439165002</v>
       </c>
       <c r="H33" t="n">
-        <v>1.017719590662464</v>
+        <v>1.017719589851507</v>
       </c>
       <c r="I33" t="n">
-        <v>-3447.769209680077</v>
+        <v>-2749.346377318909</v>
       </c>
       <c r="J33" t="n">
-        <v>1119671.857285106</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="34">
@@ -1659,22 +1659,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>476.4086010109196</v>
+        <v>379.9018535928998</v>
       </c>
       <c r="F34" t="n">
         <v>91.90253132746938</v>
       </c>
       <c r="G34" t="n">
-        <v>84.72620918476228</v>
+        <v>84.72622439165002</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9990888652639724</v>
+        <v>0.9990888644802908</v>
       </c>
       <c r="I34" t="n">
-        <v>-3469.31696089411</v>
+        <v>-2766.526868987251</v>
       </c>
       <c r="J34" t="n">
-        <v>1156516.379742399</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="35">
@@ -1695,22 +1695,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>423.820021489422</v>
+        <v>337.966215160594</v>
       </c>
       <c r="F35" t="n">
         <v>92.96249787389924</v>
       </c>
       <c r="G35" t="n">
-        <v>84.72620918476228</v>
+        <v>84.72622439165002</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9776910973337448</v>
+        <v>0.9776909340159893</v>
       </c>
       <c r="I35" t="n">
-        <v>-3535.589878969862</v>
+        <v>-2819.37542755145</v>
       </c>
       <c r="J35" t="n">
-        <v>1188844.567831086</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="36">
@@ -1731,22 +1731,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>373.6445711120102</v>
+        <v>297.95485088764</v>
       </c>
       <c r="F36" t="n">
-        <v>94.88832136772676</v>
+        <v>94.88832903815253</v>
       </c>
       <c r="G36" t="n">
-        <v>84.72620918476228</v>
+        <v>84.72622439165002</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9563213515466544</v>
+        <v>0.9563211935182151</v>
       </c>
       <c r="I36" t="n">
-        <v>-3836.58990831188</v>
+        <v>-3059.404111596858</v>
       </c>
       <c r="J36" t="n">
-        <v>1216625.894155445</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="37">
@@ -1767,99 +1767,99 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>337.161716927457</v>
+        <v>268.8624028817011</v>
       </c>
       <c r="F37" t="n">
         <v>94.62706503087801</v>
       </c>
       <c r="G37" t="n">
-        <v>84.72620918476228</v>
+        <v>84.72622439165002</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9454138176981587</v>
+        <v>0.9454138167647212</v>
       </c>
       <c r="I37" t="n">
-        <v>-3373.897598824492</v>
+        <v>-2690.438425157928</v>
       </c>
       <c r="J37" t="n">
-        <v>1241782.722671413</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43263</v>
+        <v>43238</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>43479</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>301.3353105416744</v>
+        <v>1198.77854772039</v>
       </c>
       <c r="F38" t="n">
-        <v>95.27649850487889</v>
+        <v>90.69102939117485</v>
       </c>
       <c r="G38" t="n">
-        <v>84.72620918476228</v>
+        <v>59.71490460260758</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9457724756000632</v>
+        <v>0.9316343011716834</v>
       </c>
       <c r="I38" t="n">
-        <v>-3211.088456776484</v>
+        <v>37044.03270477327</v>
       </c>
       <c r="J38" t="n">
-        <v>1264070.719022151</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43264</v>
+        <v>43241</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>43479</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>272.9390434619663</v>
+        <v>1094.277246929459</v>
       </c>
       <c r="F39" t="n">
-        <v>94.65691254173414</v>
+        <v>91.80907315333688</v>
       </c>
       <c r="G39" t="n">
-        <v>84.72620918476228</v>
+        <v>59.71490460260758</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9303555561301564</v>
+        <v>0.9440903214809303</v>
       </c>
       <c r="I39" t="n">
-        <v>-2739.383038270246</v>
+        <v>35038.23757742057</v>
       </c>
       <c r="J39" t="n">
-        <v>1284427.520111815</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43238</v>
+        <v>43242</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>43479</v>
@@ -1875,27 +1875,27 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1503.305158438156</v>
+        <v>982.843054798023</v>
       </c>
       <c r="F40" t="n">
-        <v>90.69104458541598</v>
+        <v>92.05839468913675</v>
       </c>
       <c r="G40" t="n">
-        <v>59.71491587275541</v>
+        <v>59.71490460260758</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9316343843970876</v>
+        <v>0.9444925725416999</v>
       </c>
       <c r="I40" t="n">
-        <v>43278.48085671876</v>
+        <v>31715.21162540315</v>
       </c>
       <c r="J40" t="n">
-        <v>1327706.000968533</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43241</v>
+        <v>43243</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>43479</v>
@@ -1911,27 +1911,27 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1372.257858656269</v>
+        <v>892.9375461070251</v>
       </c>
       <c r="F41" t="n">
-        <v>91.8090959421373</v>
+        <v>90.10180746267199</v>
       </c>
       <c r="G41" t="n">
-        <v>59.71491587275541</v>
+        <v>59.71490460260758</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9440906304214084</v>
+        <v>0.9387978395137264</v>
       </c>
       <c r="I41" t="n">
-        <v>41482.45531728538</v>
+        <v>27066.95437318112</v>
       </c>
       <c r="J41" t="n">
-        <v>1369188.456285819</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43242</v>
+        <v>43244</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>43479</v>
@@ -1947,27 +1947,27 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1232.514906281792</v>
+        <v>805.20811018807</v>
       </c>
       <c r="F42" t="n">
-        <v>92.05838695115912</v>
+        <v>90.72878979667389</v>
       </c>
       <c r="G42" t="n">
-        <v>59.71491587275541</v>
+        <v>59.71490460260758</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9444923453554374</v>
+        <v>0.9430507698081515</v>
       </c>
       <c r="I42" t="n">
-        <v>37564.17088050988</v>
+        <v>24912.52822984749</v>
       </c>
       <c r="J42" t="n">
-        <v>1406752.627166328</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>43243</v>
+        <v>43245</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>43479</v>
@@ -1983,27 +1983,27 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1119.770848337382</v>
+        <v>759.9454456308061</v>
       </c>
       <c r="F43" t="n">
-        <v>90.10178491105273</v>
+        <v>90.95544519432472</v>
       </c>
       <c r="G43" t="n">
-        <v>59.71491587275541</v>
+        <v>59.71490460260758</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9387976050404147</v>
+        <v>0.9668667652506504</v>
       </c>
       <c r="I43" t="n">
-        <v>31865.36897607681</v>
+        <v>23684.38145448349</v>
       </c>
       <c r="J43" t="n">
-        <v>1438617.996142405</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>43479</v>
@@ -2019,27 +2019,27 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1009.755970497442</v>
+        <v>710.3663216251439</v>
       </c>
       <c r="F44" t="n">
-        <v>90.72881235058657</v>
+        <v>89.36146743010084</v>
       </c>
       <c r="G44" t="n">
-        <v>59.71491587275541</v>
+        <v>59.71490460260758</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9430510047574026</v>
+        <v>0.9766067003330104</v>
       </c>
       <c r="I44" t="n">
-        <v>29461.94628488907</v>
+        <v>21006.89546318417</v>
       </c>
       <c r="J44" t="n">
-        <v>1468079.942427294</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43245</v>
+        <v>43250</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>43479</v>
@@ -2055,27 +2055,27 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>952.9954265281602</v>
+        <v>635.9873918455279</v>
       </c>
       <c r="F45" t="n">
-        <v>90.95546066773645</v>
+        <v>91.18209283332429</v>
       </c>
       <c r="G45" t="n">
-        <v>59.71491587275541</v>
+        <v>59.71490460260758</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9668670906264205</v>
+        <v>0.9840723908798622</v>
       </c>
       <c r="I45" t="n">
-        <v>28716.882001986</v>
+        <v>19965.26256352516</v>
       </c>
       <c r="J45" t="n">
-        <v>1496796.82442928</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43249</v>
+        <v>43251</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>43479</v>
@@ -2091,27 +2091,27 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>890.8214988130513</v>
+        <v>564.6506181200662</v>
       </c>
       <c r="F46" t="n">
-        <v>89.3614523220222</v>
+        <v>92.05838726837726</v>
       </c>
       <c r="G46" t="n">
-        <v>59.71491587275541</v>
+        <v>59.71490460260758</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9766067801049277</v>
+        <v>0.9822234275325031</v>
       </c>
       <c r="I46" t="n">
-        <v>25727.02377878943</v>
+        <v>18220.61990713894</v>
       </c>
       <c r="J46" t="n">
-        <v>1522523.84820807</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>43250</v>
+        <v>43252</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>43479</v>
@@ -2127,27 +2127,27 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>797.5474764038652</v>
+        <v>497.7223268650836</v>
       </c>
       <c r="F47" t="n">
-        <v>91.18207776306976</v>
+        <v>92.22456760489997</v>
       </c>
       <c r="G47" t="n">
-        <v>59.71491587275541</v>
+        <v>59.71490460260758</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9840721497172984</v>
+        <v>0.9730671185617128</v>
       </c>
       <c r="I47" t="n">
-        <v>24638.23773954765</v>
+        <v>16143.63331351652</v>
       </c>
       <c r="J47" t="n">
-        <v>1547162.085947617</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>43251</v>
+        <v>43255</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>43479</v>
@@ -2163,27 +2163,27 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>708.0891147382985</v>
+        <v>464.273730777292</v>
       </c>
       <c r="F48" t="n">
-        <v>92.05838726837726</v>
+        <v>94.15097671926964</v>
       </c>
       <c r="G48" t="n">
-        <v>59.71491587275541</v>
+        <v>59.71490460260758</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9822233482227812</v>
+        <v>1.000950244013168</v>
       </c>
       <c r="I48" t="n">
-        <v>22443.02330301024</v>
+        <v>15953.10859798999</v>
       </c>
       <c r="J48" t="n">
-        <v>1569605.109250628</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>43252</v>
+        <v>43256</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>43479</v>
@@ -2199,27 +2199,27 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>624.1591975248646</v>
+        <v>433.5612497537794</v>
       </c>
       <c r="F49" t="n">
-        <v>92.22459770334908</v>
+        <v>93.81103339394265</v>
       </c>
       <c r="G49" t="n">
-        <v>59.71491587275541</v>
+        <v>59.71490460260758</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9730673574455682</v>
+        <v>1.017719589851507</v>
       </c>
       <c r="I49" t="n">
-        <v>19699.38609214217</v>
+        <v>14750.39762470151</v>
       </c>
       <c r="J49" t="n">
-        <v>1589304.49534277</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>43255</v>
+        <v>43257</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>43479</v>
@@ -2235,27 +2235,27 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>582.2133893664241</v>
+        <v>379.555711520088</v>
       </c>
       <c r="F50" t="n">
-        <v>94.15093851405423</v>
+        <v>92.91959278923999</v>
       </c>
       <c r="G50" t="n">
-        <v>59.71491587275541</v>
+        <v>59.71490460260758</v>
       </c>
       <c r="H50" t="n">
-        <v>1.000949921577889</v>
+        <v>0.9990888644802908</v>
       </c>
       <c r="I50" t="n">
-        <v>20024.6587321287</v>
+        <v>12574.69763409893</v>
       </c>
       <c r="J50" t="n">
-        <v>1609329.154074899</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>43256</v>
+        <v>43258</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>43479</v>
@@ -2271,27 +2271,27 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>543.699178776151</v>
+        <v>330.4265045662099</v>
       </c>
       <c r="F51" t="n">
-        <v>93.81102571196583</v>
+        <v>91.96772294200352</v>
       </c>
       <c r="G51" t="n">
-        <v>59.71491587275541</v>
+        <v>59.71490460260758</v>
       </c>
       <c r="H51" t="n">
-        <v>1.017719590662464</v>
+        <v>0.9776909340159893</v>
       </c>
       <c r="I51" t="n">
-        <v>18825.21035298835</v>
+        <v>10632.52179229762</v>
       </c>
       <c r="J51" t="n">
-        <v>1628154.364427887</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>43257</v>
+        <v>43259</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>43479</v>
@@ -2307,27 +2307,27 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>475.9745285859963</v>
+        <v>284.9405386154097</v>
       </c>
       <c r="F52" t="n">
-        <v>92.91959278923999</v>
+        <v>91.80153746481528</v>
       </c>
       <c r="G52" t="n">
-        <v>59.71491587275541</v>
+        <v>59.71490460260758</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9990888652639724</v>
+        <v>0.9563211935182151</v>
       </c>
       <c r="I52" t="n">
-        <v>15754.68423750622</v>
+        <v>9121.513453761321</v>
       </c>
       <c r="J52" t="n">
-        <v>1643909.048665393</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>43258</v>
+        <v>43262</v>
       </c>
       <c r="B53" s="2" t="n">
         <v>43479</v>
@@ -2343,171 +2343,171 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>414.3650618820043</v>
+        <v>254.1862304929233</v>
       </c>
       <c r="F53" t="n">
-        <v>91.96773823219185</v>
+        <v>90.50973096169044</v>
       </c>
       <c r="G53" t="n">
-        <v>59.71491587275541</v>
+        <v>59.71490460260758</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9776910973337448</v>
+        <v>0.9454138167647212</v>
       </c>
       <c r="I53" t="n">
-        <v>13036.05697028776</v>
+        <v>7808.647447767907</v>
       </c>
       <c r="J53" t="n">
-        <v>1656945.105635681</v>
+        <v>1462166.28173632</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>43259</v>
+        <v>44587</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43479</v>
+        <v>45012</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>357.3242812439076</v>
+        <v>784.8847659475829</v>
       </c>
       <c r="F54" t="n">
-        <v>91.80154520891809</v>
+        <v>74.25668168023377</v>
       </c>
       <c r="G54" t="n">
-        <v>59.71491587275541</v>
+        <v>144.8709741872936</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9563213515466544</v>
+        <v>0.6282310768878137</v>
       </c>
       <c r="I54" t="n">
-        <v>10939.03457910618</v>
+        <v>55281.9486711233</v>
       </c>
       <c r="J54" t="n">
-        <v>1667884.140214787</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>43262</v>
+        <v>44588</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43479</v>
+        <v>45012</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>318.757345982053</v>
+        <v>746.3788846511123</v>
       </c>
       <c r="F55" t="n">
-        <v>90.50973096169044</v>
+        <v>75.26548840923539</v>
       </c>
       <c r="G55" t="n">
-        <v>59.71491587275541</v>
+        <v>144.8709741872936</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9454138176981587</v>
+        <v>0.6295018483818907</v>
       </c>
       <c r="I55" t="n">
-        <v>9257.75711906403</v>
+        <v>51816.90404546064</v>
       </c>
       <c r="J55" t="n">
-        <v>1677141.897333851</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>43263</v>
+        <v>44616</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>43479</v>
+        <v>45012</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>284.9946426367132</v>
+        <v>703.7452771648826</v>
       </c>
       <c r="F56" t="n">
-        <v>91.15942123730795</v>
+        <v>79.4163720760675</v>
       </c>
       <c r="G56" t="n">
-        <v>59.71491587275541</v>
+        <v>144.8709741872936</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9457724756000632</v>
+        <v>0.6409824258069219</v>
       </c>
       <c r="I56" t="n">
-        <v>8455.435310415198</v>
+        <v>45935.92677462867</v>
       </c>
       <c r="J56" t="n">
-        <v>1685597.332644267</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>43264</v>
+        <v>44617</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>43479</v>
+        <v>45012</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>253.9303555696906</v>
+        <v>672.6756363403904</v>
       </c>
       <c r="F57" t="n">
-        <v>89.09705021611873</v>
+        <v>76.96565898263651</v>
       </c>
       <c r="G57" t="n">
-        <v>59.71491587275541</v>
+        <v>144.8709741872936</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9303555561301564</v>
+        <v>0.630098554437441</v>
       </c>
       <c r="I57" t="n">
-        <v>6923.763297155394</v>
+        <v>45556.43714775161</v>
       </c>
       <c r="J57" t="n">
-        <v>1692521.095941422</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44587</v>
+        <v>44620</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>45012</v>
@@ -2523,27 +2523,27 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>908.5381051218319</v>
+        <v>610.5891794862796</v>
       </c>
       <c r="F58" t="n">
-        <v>74.25665847110903</v>
+        <v>76.35524341694378</v>
       </c>
       <c r="G58" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H58" t="n">
-        <v>0.6282309217706419</v>
+        <v>0.6103624532656878</v>
       </c>
       <c r="I58" t="n">
-        <v>63991.27059478799</v>
+        <v>41724.39302139522</v>
       </c>
       <c r="J58" t="n">
-        <v>440021.3425419378</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44588</v>
+        <v>44621</v>
       </c>
       <c r="B59" s="2" t="n">
         <v>45012</v>
@@ -2559,27 +2559,27 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>863.9660762441952</v>
+        <v>547.2897826787998</v>
       </c>
       <c r="F59" t="n">
-        <v>75.26548063280013</v>
+        <v>77.07498389371443</v>
       </c>
       <c r="G59" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6295018237708034</v>
+        <v>0.591921666695658</v>
       </c>
       <c r="I59" t="n">
-        <v>59980.33064240347</v>
+        <v>37004.94478929266</v>
       </c>
       <c r="J59" t="n">
-        <v>625008.8258056985</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44616</v>
+        <v>44622</v>
       </c>
       <c r="B60" s="2" t="n">
         <v>45012</v>
@@ -2595,27 +2595,27 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>814.6156982617216</v>
+        <v>479.4429464249714</v>
       </c>
       <c r="F60" t="n">
-        <v>79.4163720760675</v>
+        <v>75.07977246371036</v>
       </c>
       <c r="G60" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H60" t="n">
-        <v>0.6409823860726152</v>
+        <v>0.5568119529656594</v>
       </c>
       <c r="I60" t="n">
-        <v>53172.82869103528</v>
+        <v>33374.07768049951</v>
       </c>
       <c r="J60" t="n">
-        <v>796048.3065799274</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44617</v>
+        <v>44623</v>
       </c>
       <c r="B61" s="2" t="n">
         <v>45012</v>
@@ -2631,27 +2631,27 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>778.6514381639566</v>
+        <v>456.2608187160852</v>
       </c>
       <c r="F61" t="n">
-        <v>76.96565898263651</v>
+        <v>75.7904023519509</v>
       </c>
       <c r="G61" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H61" t="n">
-        <v>0.6300985931967114</v>
+        <v>0.5545223804419119</v>
       </c>
       <c r="I61" t="n">
-        <v>52733.56635258407</v>
+        <v>31436.13457635517</v>
       </c>
       <c r="J61" t="n">
-        <v>961444.8603411622</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44620</v>
+        <v>44624</v>
       </c>
       <c r="B62" s="2" t="n">
         <v>45012</v>
@@ -2667,27 +2667,27 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>706.7834913719241</v>
+        <v>423.3733469574815</v>
       </c>
       <c r="F62" t="n">
-        <v>76.35523576014194</v>
+        <v>75.97260205498698</v>
       </c>
       <c r="G62" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6103623926691155</v>
+        <v>0.5433569674598681</v>
       </c>
       <c r="I62" t="n">
-        <v>48297.80230329956</v>
+        <v>29093.06627305338</v>
       </c>
       <c r="J62" t="n">
-        <v>1112007.085062841</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44621</v>
+        <v>44627</v>
       </c>
       <c r="B63" s="2" t="n">
         <v>45012</v>
@@ -2703,27 +2703,27 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>633.5111280296643</v>
+        <v>408.0935048400322</v>
       </c>
       <c r="F63" t="n">
-        <v>77.07495987857909</v>
+        <v>79.49837854805105</v>
       </c>
       <c r="G63" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5919212809944938</v>
+        <v>0.5540836645613841</v>
       </c>
       <c r="I63" t="n">
-        <v>42834.80778278378</v>
+        <v>26604.23054540158</v>
       </c>
       <c r="J63" t="n">
-        <v>1246504.545403928</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44622</v>
+        <v>44628</v>
       </c>
       <c r="B64" s="2" t="n">
         <v>45012</v>
@@ -2739,27 +2739,27 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>554.9760064713562</v>
+        <v>371.6159130479636</v>
       </c>
       <c r="F64" t="n">
-        <v>75.07975742571918</v>
+        <v>78.86973454868858</v>
       </c>
       <c r="G64" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5568118417209853</v>
+        <v>0.5350568719690111</v>
       </c>
       <c r="I64" t="n">
-        <v>38631.95087173023</v>
+        <v>24459.81548141419</v>
       </c>
       <c r="J64" t="n">
-        <v>1365435.911090352</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44623</v>
+        <v>44629</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>45012</v>
@@ -2775,27 +2775,27 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>528.141580313333</v>
+        <v>371.6599632418282</v>
       </c>
       <c r="F65" t="n">
-        <v>75.79038727440414</v>
+        <v>79.71700956624869</v>
       </c>
       <c r="G65" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5545222101612218</v>
+        <v>0.5458798568344508</v>
       </c>
       <c r="I65" t="n">
-        <v>36388.68985958496</v>
+        <v>24147.81666994034</v>
       </c>
       <c r="J65" t="n">
-        <v>1478241.345717186</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44624</v>
+        <v>44630</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>45012</v>
@@ -2811,27 +2811,27 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>490.0731274028969</v>
+        <v>338.5454114589503</v>
       </c>
       <c r="F66" t="n">
-        <v>75.97260205498698</v>
+        <v>80.43676473678612</v>
       </c>
       <c r="G66" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H66" t="n">
-        <v>0.5433569679348772</v>
+        <v>0.5314673072022128</v>
       </c>
       <c r="I66" t="n">
-        <v>33676.49398961075</v>
+        <v>21752.59919599836</v>
       </c>
       <c r="J66" t="n">
-        <v>1582826.46438243</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44627</v>
+        <v>44631</v>
       </c>
       <c r="B67" s="2" t="n">
         <v>45012</v>
@@ -2847,27 +2847,27 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>472.3856973583688</v>
+        <v>342.0603086986093</v>
       </c>
       <c r="F67" t="n">
-        <v>79.49837062350676</v>
+        <v>80.86495627055277</v>
       </c>
       <c r="G67" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5540834352427321</v>
+        <v>0.5434058217105239</v>
       </c>
       <c r="I67" t="n">
-        <v>30795.53920240105</v>
+        <v>21831.97498447911</v>
       </c>
       <c r="J67" t="n">
-        <v>1681971.436033072</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44628</v>
+        <v>44634</v>
       </c>
       <c r="B68" s="2" t="n">
         <v>45012</v>
@@ -2883,27 +2883,27 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>430.1616898902896</v>
+        <v>338.6483438008149</v>
       </c>
       <c r="F68" t="n">
-        <v>78.86974184354915</v>
+        <v>82.83281219228815</v>
       </c>
       <c r="G68" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5350569219277563</v>
+        <v>0.5555822204115314</v>
       </c>
       <c r="I68" t="n">
-        <v>28313.30421098616</v>
+        <v>20947.79541771357</v>
       </c>
       <c r="J68" t="n">
-        <v>1772524.785887676</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44629</v>
+        <v>44635</v>
       </c>
       <c r="B69" s="2" t="n">
         <v>45012</v>
@@ -2919,27 +2919,27 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>430.212720570671</v>
+        <v>347.3632494523032</v>
       </c>
       <c r="F69" t="n">
-        <v>79.71702488807624</v>
+        <v>80.39118518065226</v>
       </c>
       <c r="G69" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5458799624050938</v>
+        <v>0.5630783373103474</v>
       </c>
       <c r="I69" t="n">
-        <v>27952.1511140188</v>
+        <v>22335.00546791455</v>
       </c>
       <c r="J69" t="n">
-        <v>1862724.366268613</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="B70" s="2" t="n">
         <v>45012</v>
@@ -2955,27 +2955,27 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>391.881213475331</v>
+        <v>325.000247700546</v>
       </c>
       <c r="F70" t="n">
-        <v>80.43675721725904</v>
+        <v>77.39383298974792</v>
       </c>
       <c r="G70" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5314673639927255</v>
+        <v>0.5431551700563946</v>
       </c>
       <c r="I70" t="n">
-        <v>25179.59386909756</v>
+        <v>21871.23372520769</v>
       </c>
       <c r="J70" t="n">
-        <v>1944605.208033128</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44631</v>
+        <v>44637</v>
       </c>
       <c r="B71" s="2" t="n">
         <v>45012</v>
@@ -2991,27 +2991,27 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>395.9497016365332</v>
+        <v>314.9844313565323</v>
       </c>
       <c r="F71" t="n">
-        <v>80.86494888334771</v>
+        <v>78.44156063102771</v>
       </c>
       <c r="G71" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5434057725823431</v>
+        <v>0.5465418346602339</v>
       </c>
       <c r="I71" t="n">
-        <v>25271.46459828119</v>
+        <v>20867.19092758776</v>
       </c>
       <c r="J71" t="n">
-        <v>2027166.589612906</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44634</v>
+        <v>44638</v>
       </c>
       <c r="B72" s="2" t="n">
         <v>45012</v>
@@ -3027,27 +3027,27 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>392.0001976223858</v>
+        <v>313.2065014069324</v>
       </c>
       <c r="F72" t="n">
-        <v>82.83281985285704</v>
+        <v>81.36601799824638</v>
       </c>
       <c r="G72" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H72" t="n">
-        <v>0.5555822156085772</v>
+        <v>0.5636492384363546</v>
       </c>
       <c r="I72" t="n">
-        <v>24247.98194608823</v>
+        <v>19833.44698624622</v>
       </c>
       <c r="J72" t="n">
-        <v>2108133.035257021</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44635</v>
+        <v>44641</v>
       </c>
       <c r="B73" s="2" t="n">
         <v>45012</v>
@@ -3063,27 +3063,27 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>402.0882055460763</v>
+        <v>304.1925120916382</v>
       </c>
       <c r="F73" t="n">
-        <v>80.39120113178905</v>
+        <v>83.80764123706226</v>
       </c>
       <c r="G73" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5630784496751252</v>
+        <v>0.5730547573116281</v>
       </c>
       <c r="I73" t="n">
-        <v>25853.7426043477</v>
+        <v>18519.92281485998</v>
       </c>
       <c r="J73" t="n">
-        <v>2192164.874270492</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44636</v>
+        <v>44642</v>
       </c>
       <c r="B74" s="2" t="n">
         <v>45012</v>
@@ -3099,27 +3099,27 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>376.2020071187193</v>
+        <v>297.1442447761779</v>
       </c>
       <c r="F74" t="n">
-        <v>77.39384062004017</v>
+        <v>85.36555133760729</v>
       </c>
       <c r="G74" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H74" t="n">
-        <v>0.5431552242588092</v>
+        <v>0.5813481858690736</v>
       </c>
       <c r="I74" t="n">
-        <v>25316.90714354051</v>
+        <v>17627.88446248856</v>
       </c>
       <c r="J74" t="n">
-        <v>2271914.406737458</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44637</v>
+        <v>44643</v>
       </c>
       <c r="B75" s="2" t="n">
         <v>45012</v>
@@ -3135,27 +3135,27 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>364.6082322792502</v>
+        <v>283.4577551175798</v>
       </c>
       <c r="F75" t="n">
-        <v>78.44154588434718</v>
+        <v>86.69567892159658</v>
       </c>
       <c r="G75" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5465417903781131</v>
+        <v>0.582260044367681</v>
       </c>
       <c r="I75" t="n">
-        <v>24154.68998759972</v>
+        <v>16438.9075979108</v>
       </c>
       <c r="J75" t="n">
-        <v>2348824.220094801</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44638</v>
+        <v>44644</v>
       </c>
       <c r="B76" s="2" t="n">
         <v>45012</v>
@@ -3171,27 +3171,27 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>362.5500739401176</v>
+        <v>273.8695467768236</v>
       </c>
       <c r="F76" t="n">
-        <v>81.36602553314856</v>
+        <v>87.17855043293795</v>
       </c>
       <c r="G76" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H76" t="n">
-        <v>0.5636491725658711</v>
+        <v>0.5840040090117031</v>
       </c>
       <c r="I76" t="n">
-        <v>22958.07010211942</v>
+        <v>15750.60326100958</v>
       </c>
       <c r="J76" t="n">
-        <v>2424239.618872296</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44641</v>
+        <v>44645</v>
       </c>
       <c r="B77" s="2" t="n">
         <v>45012</v>
@@ -3207,27 +3207,27 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>352.1160789620764</v>
+        <v>267.9238649911704</v>
       </c>
       <c r="F77" t="n">
-        <v>83.80763379140163</v>
+        <v>87.05098462650781</v>
       </c>
       <c r="G77" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H77" t="n">
-        <v>0.5730547068681013</v>
+        <v>0.5873896593995068</v>
       </c>
       <c r="I77" t="n">
-        <v>21437.61973929523</v>
+        <v>15442.83708771323</v>
       </c>
       <c r="J77" t="n">
-        <v>2496624.873748605</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44642</v>
+        <v>44648</v>
       </c>
       <c r="B78" s="2" t="n">
         <v>45012</v>
@@ -3243,27 +3243,27 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>343.9574761154794</v>
+        <v>257.9643604352128</v>
       </c>
       <c r="F78" t="n">
-        <v>85.36554369924558</v>
+        <v>87.55206208906623</v>
       </c>
       <c r="G78" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H78" t="n">
-        <v>0.581348194632651</v>
+        <v>0.5883707626651529</v>
       </c>
       <c r="I78" t="n">
-        <v>20405.05086752927</v>
+        <v>14739.52206500908</v>
       </c>
       <c r="J78" t="n">
-        <v>2566797.092441681</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44643</v>
+        <v>44649</v>
       </c>
       <c r="B79" s="2" t="n">
         <v>45012</v>
@@ -3279,27 +3279,27 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>328.1149960865528</v>
+        <v>252.3866017012635</v>
       </c>
       <c r="F79" t="n">
-        <v>86.69567892159658</v>
+        <v>86.2310410940191</v>
       </c>
       <c r="G79" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H79" t="n">
-        <v>0.5822602839610314</v>
+        <v>0.5878956314065384</v>
       </c>
       <c r="I79" t="n">
-        <v>19028.76885452757</v>
+        <v>14754.22907132565</v>
       </c>
       <c r="J79" t="n">
-        <v>2633300.782500817</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44644</v>
+        <v>44650</v>
       </c>
       <c r="B80" s="2" t="n">
         <v>45012</v>
@@ -3315,27 +3315,27 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>317.0160870806901</v>
+        <v>246.5714555315872</v>
       </c>
       <c r="F80" t="n">
-        <v>87.17853529281429</v>
+        <v>89.13729108143274</v>
       </c>
       <c r="G80" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5840040875086279</v>
+        <v>0.6014072275967629</v>
       </c>
       <c r="I80" t="n">
-        <v>18232.02319575911</v>
+        <v>13697.68405683629</v>
       </c>
       <c r="J80" t="n">
-        <v>2697401.827028289</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44645</v>
+        <v>44651</v>
       </c>
       <c r="B81" s="2" t="n">
         <v>45012</v>
@@ -3351,27 +3351,27 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>310.1336111574969</v>
+        <v>246.6741683787016</v>
       </c>
       <c r="F81" t="n">
-        <v>87.05099961856276</v>
+        <v>90.58586678271257</v>
       </c>
       <c r="G81" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5873897612029514</v>
+        <v>0.6177634631844746</v>
       </c>
       <c r="I81" t="n">
-        <v>17875.75581206436</v>
+        <v>13346.06381552368</v>
       </c>
       <c r="J81" t="n">
-        <v>2760150.779518993</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44648</v>
+        <v>44652</v>
       </c>
       <c r="B82" s="2" t="n">
         <v>45012</v>
@@ -3387,27 +3387,27 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>298.6048704571658</v>
+        <v>245.1771879896654</v>
       </c>
       <c r="F82" t="n">
-        <v>87.55206208906623</v>
+        <v>92.85438437647851</v>
       </c>
       <c r="G82" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5883706428123353</v>
+        <v>0.635916992406815</v>
       </c>
       <c r="I82" t="n">
-        <v>17061.6323487366</v>
+        <v>12708.88239603682</v>
       </c>
       <c r="J82" t="n">
-        <v>2820417.516374829</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44649</v>
+        <v>44655</v>
       </c>
       <c r="B83" s="2" t="n">
         <v>45012</v>
@@ -3423,27 +3423,27 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>292.1484732042265</v>
+        <v>228.6403908000432</v>
       </c>
       <c r="F83" t="n">
-        <v>86.23103362481966</v>
+        <v>92.74506214137715</v>
       </c>
       <c r="G83" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H83" t="n">
-        <v>0.58789558092747</v>
+        <v>0.6266918795836245</v>
       </c>
       <c r="I83" t="n">
-        <v>17078.66431171281</v>
+        <v>11876.6847057948</v>
       </c>
       <c r="J83" t="n">
-        <v>2879767.109814568</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44650</v>
+        <v>44656</v>
       </c>
       <c r="B84" s="2" t="n">
         <v>45012</v>
@@ -3459,27 +3459,27 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>285.4172977520989</v>
+        <v>217.9005390860457</v>
       </c>
       <c r="F84" t="n">
-        <v>89.13729850889476</v>
+        <v>92.07088067176444</v>
       </c>
       <c r="G84" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6014073401235971</v>
+        <v>0.6220168766147427</v>
       </c>
       <c r="I84" t="n">
-        <v>15855.6692534514</v>
+        <v>11465.70951161076</v>
       </c>
       <c r="J84" t="n">
-        <v>2936919.775190802</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44651</v>
+        <v>44657</v>
       </c>
       <c r="B85" s="2" t="n">
         <v>45012</v>
@@ -3495,27 +3495,27 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>285.5361291652621</v>
+        <v>213.3066452218352</v>
       </c>
       <c r="F85" t="n">
-        <v>90.58587425356832</v>
+        <v>93.5650043638469</v>
       </c>
       <c r="G85" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H85" t="n">
-        <v>0.6177635147581214</v>
+        <v>0.6328769650909688</v>
       </c>
       <c r="I85" t="n">
-        <v>15448.64993492803</v>
+        <v>10905.27687602473</v>
       </c>
       <c r="J85" t="n">
-        <v>2993682.614952073</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44652</v>
+        <v>44658</v>
       </c>
       <c r="B86" s="2" t="n">
         <v>45012</v>
@@ -3531,27 +3531,27 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>283.8030474189338</v>
+        <v>205.6296863294326</v>
       </c>
       <c r="F86" t="n">
-        <v>92.85438437647851</v>
+        <v>94.30296664042417</v>
       </c>
       <c r="G86" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H86" t="n">
-        <v>0.6359167293166564</v>
+        <v>0.636841270095907</v>
       </c>
       <c r="I86" t="n">
-        <v>14711.07317470385</v>
+        <v>10361.04631394167</v>
       </c>
       <c r="J86" t="n">
-        <v>3049457.118553735</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44655</v>
+        <v>44659</v>
       </c>
       <c r="B87" s="2" t="n">
         <v>45012</v>
@@ -3567,27 +3567,27 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>264.6612512686356</v>
+        <v>193.6026507206848</v>
       </c>
       <c r="F87" t="n">
-        <v>92.74506985104961</v>
+        <v>94.76758682319985</v>
       </c>
       <c r="G87" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H87" t="n">
-        <v>0.6266919321264892</v>
+        <v>0.632565310669671</v>
       </c>
       <c r="I87" t="n">
-        <v>13747.77989851338</v>
+        <v>9665.089348004876</v>
       </c>
       <c r="J87" t="n">
-        <v>3101498.704586538</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44656</v>
+        <v>44662</v>
       </c>
       <c r="B88" s="2" t="n">
         <v>45012</v>
@@ -3603,27 +3603,27 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>252.2293069814547</v>
+        <v>180.1092393455029</v>
       </c>
       <c r="F88" t="n">
-        <v>92.07087307244846</v>
+        <v>93.54678063502455</v>
       </c>
       <c r="G88" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H88" t="n">
-        <v>0.622016760977778</v>
+        <v>0.6188187473711493</v>
       </c>
       <c r="I88" t="n">
-        <v>13272.05703097188</v>
+        <v>9211.345709515395</v>
       </c>
       <c r="J88" t="n">
-        <v>3151265.791156722</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44657</v>
+        <v>44663</v>
       </c>
       <c r="B89" s="2" t="n">
         <v>45012</v>
@@ -3639,27 +3639,27 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>246.9117828800389</v>
+        <v>172.1979297504277</v>
       </c>
       <c r="F89" t="n">
-        <v>93.56499677876683</v>
+        <v>93.47389904863218</v>
       </c>
       <c r="G89" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H89" t="n">
-        <v>0.6328769796026738</v>
+        <v>0.6168768661690458</v>
       </c>
       <c r="I89" t="n">
-        <v>12623.33741618715</v>
+        <v>8819.286831809697</v>
       </c>
       <c r="J89" t="n">
-        <v>3199614.766158907</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="B90" s="2" t="n">
         <v>45012</v>
@@ -3675,27 +3675,27 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>238.0252490134786</v>
+        <v>160.7341432586601</v>
       </c>
       <c r="F90" t="n">
-        <v>94.30295135505438</v>
+        <v>92.84529850012534</v>
       </c>
       <c r="G90" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H90" t="n">
-        <v>0.636841102464878</v>
+        <v>0.6057476605973582</v>
       </c>
       <c r="I90" t="n">
-        <v>11993.36253963081</v>
+        <v>8333.195269131087</v>
       </c>
       <c r="J90" t="n">
-        <v>3246047.974717161</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44659</v>
+        <v>44665</v>
       </c>
       <c r="B91" s="2" t="n">
         <v>45012</v>
@@ -3711,27 +3711,27 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>224.1034958229256</v>
+        <v>158.4017485521441</v>
       </c>
       <c r="F91" t="n">
-        <v>94.76759451172516</v>
+        <v>94.7493776652132</v>
       </c>
       <c r="G91" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H91" t="n">
-        <v>0.632565299098633</v>
+        <v>0.619037273648641</v>
       </c>
       <c r="I91" t="n">
-        <v>11187.75992313989</v>
+        <v>7910.663759790443</v>
       </c>
       <c r="J91" t="n">
-        <v>3289661.243784248</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44662</v>
+        <v>44669</v>
       </c>
       <c r="B92" s="2" t="n">
         <v>45012</v>
@@ -3747,27 +3747,27 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>208.4843274562468</v>
+        <v>151.1059523001655</v>
       </c>
       <c r="F92" t="n">
-        <v>93.54678839901088</v>
+        <v>96.57148002996448</v>
       </c>
       <c r="G92" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H92" t="n">
-        <v>0.6188187992819014</v>
+        <v>0.6225886348878227</v>
       </c>
       <c r="I92" t="n">
-        <v>10662.53419678287</v>
+        <v>7270.977477115462</v>
       </c>
       <c r="J92" t="n">
-        <v>3330489.351442873</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44663</v>
+        <v>44670</v>
       </c>
       <c r="B93" s="2" t="n">
         <v>45012</v>
@@ -3783,27 +3783,27 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>199.3266153010763</v>
+        <v>149.8292283647763</v>
       </c>
       <c r="F93" t="n">
-        <v>93.4739145814402</v>
+        <v>99.74194271899131</v>
       </c>
       <c r="G93" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H93" t="n">
-        <v>0.6168769071434951</v>
+        <v>0.642748087529568</v>
       </c>
       <c r="I93" t="n">
-        <v>10208.70612648727</v>
+        <v>6734.515578901766</v>
       </c>
       <c r="J93" t="n">
-        <v>3369538.602708308</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="B94" s="2" t="n">
         <v>45012</v>
@@ -3819,27 +3819,27 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>186.0567280695017</v>
+        <v>143.9762656884678</v>
       </c>
       <c r="F94" t="n">
-        <v>92.84526857857036</v>
+        <v>98.33890985195431</v>
       </c>
       <c r="G94" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H94" t="n">
-        <v>0.6057474657799332</v>
+        <v>0.6390633942712817</v>
       </c>
       <c r="I94" t="n">
-        <v>9646.039786754254</v>
+        <v>6673.440380440012</v>
       </c>
       <c r="J94" t="n">
-        <v>3406105.16917028</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44665</v>
+        <v>44672</v>
       </c>
       <c r="B95" s="2" t="n">
         <v>45012</v>
@@ -3855,27 +3855,27 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>183.3569438781759</v>
+        <v>139.1933298317266</v>
       </c>
       <c r="F95" t="n">
-        <v>94.7493776652132</v>
+        <v>99.29552348277066</v>
       </c>
       <c r="G95" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H95" t="n">
-        <v>0.6190372740812262</v>
+        <v>0.6448344428172289</v>
       </c>
       <c r="I95" t="n">
-        <v>9156.938886729124</v>
+        <v>6318.592400527886</v>
       </c>
       <c r="J95" t="n">
-        <v>3441792.003266791</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44669</v>
+        <v>44673</v>
       </c>
       <c r="B96" s="2" t="n">
         <v>45012</v>
@@ -3891,27 +3891,27 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>174.9117831993501</v>
+        <v>139.5735159323642</v>
       </c>
       <c r="F96" t="n">
-        <v>96.5714653726771</v>
+        <v>95.24133796447795</v>
       </c>
       <c r="G96" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H96" t="n">
-        <v>0.6225886627843765</v>
+        <v>0.6459843805147287</v>
       </c>
       <c r="I96" t="n">
-        <v>8416.478663881138</v>
+        <v>6901.707633032762</v>
       </c>
       <c r="J96" t="n">
-        <v>3475516.447809062</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44670</v>
+        <v>44676</v>
       </c>
       <c r="B97" s="2" t="n">
         <v>45012</v>
@@ -3927,27 +3927,27 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>173.4339321428501</v>
+        <v>141.7315021699038</v>
       </c>
       <c r="F97" t="n">
-        <v>99.74193496638173</v>
+        <v>90.65875451748801</v>
       </c>
       <c r="G97" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H97" t="n">
-        <v>0.6427481654605567</v>
+        <v>0.6487757392164437</v>
       </c>
       <c r="I97" t="n">
-        <v>7795.499797528311</v>
+        <v>7657.913353775871</v>
       </c>
       <c r="J97" t="n">
-        <v>3508406.083384875</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44671</v>
+        <v>44677</v>
       </c>
       <c r="B98" s="2" t="n">
         <v>45012</v>
@@ -3963,27 +3963,27 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>166.6587618160519</v>
+        <v>133.3989839373154</v>
       </c>
       <c r="F98" t="n">
-        <v>98.33891747217146</v>
+        <v>92.67217647064493</v>
       </c>
       <c r="G98" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H98" t="n">
-        <v>0.6390633182180673</v>
+        <v>0.6503889972778348</v>
       </c>
       <c r="I98" t="n">
-        <v>7724.794935420129</v>
+        <v>6939.109527202143</v>
       </c>
       <c r="J98" t="n">
-        <v>3540244.715479958</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44672</v>
+        <v>44678</v>
       </c>
       <c r="B99" s="2" t="n">
         <v>45012</v>
@@ -3999,27 +3999,27 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>161.1224186398932</v>
+        <v>135.8530322177621</v>
       </c>
       <c r="F99" t="n">
-        <v>99.29553933498046</v>
+        <v>96.44393918928488</v>
       </c>
       <c r="G99" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H99" t="n">
-        <v>0.6448346130275543</v>
+        <v>0.6843181299841916</v>
       </c>
       <c r="I99" t="n">
-        <v>7314.046841779854</v>
+        <v>6554.358094390563</v>
       </c>
       <c r="J99" t="n">
-        <v>3570871.546621323</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44673</v>
+        <v>44705</v>
       </c>
       <c r="B100" s="2" t="n">
         <v>45012</v>
@@ -4035,27 +4035,27 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>161.5625194995598</v>
+        <v>125.4602986347591</v>
       </c>
       <c r="F100" t="n">
-        <v>95.24134570418573</v>
+        <v>112.1203868643312</v>
       </c>
       <c r="G100" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H100" t="n">
-        <v>0.6459845703040844</v>
+        <v>0.7267297540624408</v>
       </c>
       <c r="I100" t="n">
-        <v>7989.03067006795</v>
+        <v>4086.179021396305</v>
       </c>
       <c r="J100" t="n">
-        <v>3602237.039733955</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44676</v>
+        <v>44706</v>
       </c>
       <c r="B101" s="2" t="n">
         <v>45012</v>
@@ -4071,243 +4071,243 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>164.0604679839245</v>
+        <v>117.5021354202469</v>
       </c>
       <c r="F101" t="n">
-        <v>90.65875451748801</v>
+        <v>114.1135128055062</v>
       </c>
       <c r="G101" t="n">
         <v>144.8709741872936</v>
       </c>
       <c r="H101" t="n">
-        <v>0.6487758800709852</v>
+        <v>0.7292514711992798</v>
       </c>
       <c r="I101" t="n">
-        <v>8864.372629697549</v>
+        <v>3592.789081431516</v>
       </c>
       <c r="J101" t="n">
-        <v>3634839.302686329</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44677</v>
+        <v>44587</v>
       </c>
       <c r="B102" s="2" t="n">
         <v>45012</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>154.4151190585679</v>
+        <v>1249.356796922263</v>
       </c>
       <c r="F102" t="n">
-        <v>92.67218385187022</v>
+        <v>117.0335235969664</v>
       </c>
       <c r="G102" t="n">
-        <v>144.8709741872936</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H102" t="n">
-        <v>0.6503889790237734</v>
+        <v>0.6282310768878137</v>
       </c>
       <c r="I102" t="n">
-        <v>8032.319588448544</v>
+        <v>-8135.964912572936</v>
       </c>
       <c r="J102" t="n">
-        <v>3665213.92816613</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44678</v>
+        <v>44588</v>
       </c>
       <c r="B103" s="2" t="n">
         <v>45012</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>157.2557846609719</v>
+        <v>1185.665914356962</v>
       </c>
       <c r="F103" t="n">
-        <v>96.44392443907587</v>
+        <v>118.3984858503972</v>
       </c>
       <c r="G103" t="n">
-        <v>144.8709741872936</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H103" t="n">
-        <v>0.6843180258119784</v>
+        <v>0.6295018483818907</v>
       </c>
       <c r="I103" t="n">
-        <v>7586.956458571369</v>
+        <v>-6102.812844261219</v>
       </c>
       <c r="J103" t="n">
-        <v>3695554.206096723</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44705</v>
+        <v>44616</v>
       </c>
       <c r="B104" s="2" t="n">
         <v>45012</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>145.225730383058</v>
+        <v>1097.916649241903</v>
       </c>
       <c r="F104" t="n">
-        <v>112.1203793663826</v>
+        <v>122.7382514663261</v>
       </c>
       <c r="G104" t="n">
-        <v>144.8709741872936</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H104" t="n">
-        <v>0.7267296348822111</v>
+        <v>0.6409824258069219</v>
       </c>
       <c r="I104" t="n">
-        <v>4729.930312049324</v>
+        <v>-886.4523632274669</v>
       </c>
       <c r="J104" t="n">
-        <v>3721296.83070513</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B105" s="2" t="n">
         <v>45012</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>136.0138937347041</v>
+        <v>1067.572099004358</v>
       </c>
       <c r="F105" t="n">
-        <v>114.1135053618437</v>
+        <v>120.9852656455424</v>
       </c>
       <c r="G105" t="n">
-        <v>144.8709741872936</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H105" t="n">
-        <v>0.729251564514287</v>
+        <v>0.630098554437441</v>
       </c>
       <c r="I105" t="n">
-        <v>4158.812514762772</v>
+        <v>-2733.39107868338</v>
       </c>
       <c r="J105" t="n">
-        <v>3745135.477926637</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44707</v>
+        <v>44620</v>
       </c>
       <c r="B106" s="2" t="n">
         <v>45012</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>128.8629490528177</v>
+        <v>1000.371461611668</v>
       </c>
       <c r="F106" t="n">
-        <v>118.6876164613163</v>
+        <v>123.9306945195858</v>
       </c>
       <c r="G106" t="n">
-        <v>144.8709741872936</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H106" t="n">
-        <v>0.7441973135392597</v>
+        <v>0.6103624532656878</v>
       </c>
       <c r="I106" t="n">
-        <v>3350.729066466894</v>
+        <v>385.1911291939341</v>
       </c>
       <c r="J106" t="n">
-        <v>3767131.372332825</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44708</v>
+        <v>44621</v>
       </c>
       <c r="B107" s="2" t="n">
         <v>45012</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>120.9569344396541</v>
+        <v>924.5983268934704</v>
       </c>
       <c r="F107" t="n">
-        <v>118.0354845358526</v>
+        <v>129.0384486878187</v>
       </c>
       <c r="G107" t="n">
-        <v>144.8709741872936</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H107" t="n">
-        <v>0.7399873860362616</v>
+        <v>0.591921666695658</v>
       </c>
       <c r="I107" t="n">
-        <v>3224.034626266637</v>
+        <v>5078.63578587649</v>
       </c>
       <c r="J107" t="n">
-        <v>3787856.651949915</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44587</v>
+        <v>44622</v>
       </c>
       <c r="B108" s="2" t="n">
         <v>45012</v>
@@ -4323,27 +4323,27 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1446.18495148433</v>
+        <v>861.0500257248254</v>
       </c>
       <c r="F108" t="n">
-        <v>117.0335159554978</v>
+        <v>133.65684038206</v>
       </c>
       <c r="G108" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H108" t="n">
-        <v>0.6282309217706419</v>
+        <v>0.5568119529656594</v>
       </c>
       <c r="I108" t="n">
-        <v>-5916.511764204133</v>
+        <v>8706.243820297344</v>
       </c>
       <c r="J108" t="n">
-        <v>3781940.140185711</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44588</v>
+        <v>44623</v>
       </c>
       <c r="B109" s="2" t="n">
         <v>45012</v>
@@ -4359,27 +4359,27 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1372.460005070229</v>
+        <v>822.7996467022308</v>
       </c>
       <c r="F109" t="n">
-        <v>118.3984782728533</v>
+        <v>135.4899458270049</v>
       </c>
       <c r="G109" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H109" t="n">
-        <v>0.6295018237708034</v>
+        <v>0.5545223804419119</v>
       </c>
       <c r="I109" t="n">
-        <v>-4446.972098454311</v>
+        <v>9827.765331383625</v>
       </c>
       <c r="J109" t="n">
-        <v>3777493.168087256</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44616</v>
+        <v>44624</v>
       </c>
       <c r="B110" s="2" t="n">
         <v>45012</v>
@@ -4395,27 +4395,27 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1270.886245803073</v>
+        <v>779.1808558868835</v>
       </c>
       <c r="F110" t="n">
-        <v>122.7382592699767</v>
+        <v>138.6311497714399</v>
       </c>
       <c r="G110" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H110" t="n">
-        <v>0.6409823860726152</v>
+        <v>0.5433569674598681</v>
       </c>
       <c r="I110" t="n">
-        <v>-657.7040528279009</v>
+        <v>11754.33541209643</v>
       </c>
       <c r="J110" t="n">
-        <v>3776835.464034428</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44617</v>
+        <v>44627</v>
       </c>
       <c r="B111" s="2" t="n">
         <v>45012</v>
@@ -4431,27 +4431,27 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1235.761270650652</v>
+        <v>736.5196466549531</v>
       </c>
       <c r="F111" t="n">
-        <v>120.9852582563667</v>
+        <v>142.2884512717275</v>
       </c>
       <c r="G111" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H111" t="n">
-        <v>0.6300985931967114</v>
+        <v>0.5540836645613841</v>
       </c>
       <c r="I111" t="n">
-        <v>-1993.64400517942</v>
+        <v>13804.44400599591</v>
       </c>
       <c r="J111" t="n">
-        <v>3774841.820029249</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44620</v>
+        <v>44628</v>
       </c>
       <c r="B112" s="2" t="n">
         <v>45012</v>
@@ -4467,27 +4467,27 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1157.973525008903</v>
+        <v>694.5353522522116</v>
       </c>
       <c r="F112" t="n">
-        <v>123.9306945195858</v>
+        <v>146.2127262274879</v>
       </c>
       <c r="G112" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H112" t="n">
-        <v>0.6103623926691155</v>
+        <v>0.5350568719690111</v>
       </c>
       <c r="I112" t="n">
-        <v>272.1510143952073</v>
+        <v>15743.08825794257</v>
       </c>
       <c r="J112" t="n">
-        <v>3775113.971043644</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44621</v>
+        <v>44629</v>
       </c>
       <c r="B113" s="2" t="n">
         <v>45012</v>
@@ -4503,27 +4503,27 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1070.262462882387</v>
+        <v>680.8457183180908</v>
       </c>
       <c r="F113" t="n">
-        <v>129.0384930241178</v>
+        <v>144.8423867012164</v>
       </c>
       <c r="G113" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H113" t="n">
-        <v>0.5919212809944938</v>
+        <v>0.5458798568344508</v>
       </c>
       <c r="I113" t="n">
-        <v>3479.784265345712</v>
+        <v>14499.79443393193</v>
       </c>
       <c r="J113" t="n">
-        <v>3778593.75530899</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44622</v>
+        <v>44630</v>
       </c>
       <c r="B114" s="2" t="n">
         <v>45012</v>
@@ -4539,27 +4539,27 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>996.7029522146028</v>
+        <v>637.0013862962609</v>
       </c>
       <c r="F114" t="n">
-        <v>133.65684038206</v>
+        <v>150.1548589015027</v>
       </c>
       <c r="G114" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H114" t="n">
-        <v>0.5568118417209853</v>
+        <v>0.5314673072022128</v>
       </c>
       <c r="I114" t="n">
-        <v>5611.474265634948</v>
+        <v>16950.10523834527</v>
       </c>
       <c r="J114" t="n">
-        <v>3784205.229574625</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44623</v>
+        <v>44631</v>
       </c>
       <c r="B115" s="2" t="n">
         <v>45012</v>
@@ -4575,27 +4575,27 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>952.4263783046329</v>
+        <v>629.4748694849781</v>
       </c>
       <c r="F115" t="n">
-        <v>135.4899606990003</v>
+        <v>147.6187598351267</v>
       </c>
       <c r="G115" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H115" t="n">
-        <v>0.5545222101612218</v>
+        <v>0.5434058217105239</v>
       </c>
       <c r="I115" t="n">
-        <v>6308.293034940943</v>
+        <v>15153.41992446758</v>
       </c>
       <c r="J115" t="n">
-        <v>3790513.522609566</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44624</v>
+        <v>44634</v>
       </c>
       <c r="B116" s="2" t="n">
         <v>45012</v>
@@ -4611,27 +4611,27 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>901.9358475616963</v>
+        <v>609.5377630154741</v>
       </c>
       <c r="F116" t="n">
-        <v>138.6311497714399</v>
+        <v>147.9035070079709</v>
       </c>
       <c r="G116" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H116" t="n">
-        <v>0.5433569679348772</v>
+        <v>0.5555822204115314</v>
       </c>
       <c r="I116" t="n">
-        <v>7393.003532293637</v>
+        <v>14847.03585403774</v>
       </c>
       <c r="J116" t="n">
-        <v>3797906.52614186</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44627</v>
+        <v>44635</v>
       </c>
       <c r="B117" s="2" t="n">
         <v>45012</v>
@@ -4647,27 +4647,27 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>852.5533652732764</v>
+        <v>616.9003963312653</v>
       </c>
       <c r="F117" t="n">
-        <v>142.2884964435439</v>
+        <v>141.5854933110123</v>
       </c>
       <c r="G117" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H117" t="n">
-        <v>0.5540834352427321</v>
+        <v>0.5630783373103474</v>
       </c>
       <c r="I117" t="n">
-        <v>8853.857870770471</v>
+        <v>11128.78869621679</v>
       </c>
       <c r="J117" t="n">
-        <v>3806760.38401263</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44628</v>
+        <v>44636</v>
       </c>
       <c r="B118" s="2" t="n">
         <v>45012</v>
@@ -4683,27 +4683,27 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>803.9550041525679</v>
+        <v>598.3561707914921</v>
       </c>
       <c r="F118" t="n">
-        <v>146.2127262274879</v>
+        <v>141.3007270860122</v>
       </c>
       <c r="G118" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H118" t="n">
-        <v>0.5350569219277563</v>
+        <v>0.5431551700563946</v>
       </c>
       <c r="I118" t="n">
-        <v>9750.51262572049</v>
+        <v>10623.86207882322</v>
       </c>
       <c r="J118" t="n">
-        <v>3816510.896638351</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44629</v>
+        <v>44637</v>
       </c>
       <c r="B119" s="2" t="n">
         <v>45012</v>
@@ -4719,27 +4719,27 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>788.1086506183443</v>
+        <v>576.3226369530289</v>
       </c>
       <c r="F119" t="n">
-        <v>144.8423867012164</v>
+        <v>142.3329765543248</v>
       </c>
       <c r="G119" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H119" t="n">
-        <v>0.5458799624050938</v>
+        <v>0.5465418346602339</v>
       </c>
       <c r="I119" t="n">
-        <v>9162.131846910546</v>
+        <v>10827.56364375688</v>
       </c>
       <c r="J119" t="n">
-        <v>3825673.028485261</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44630</v>
+        <v>44638</v>
       </c>
       <c r="B120" s="2" t="n">
         <v>45012</v>
@@ -4755,27 +4755,27 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>737.3570608950786</v>
+        <v>555.6762611368251</v>
       </c>
       <c r="F120" t="n">
-        <v>150.154828755524</v>
+        <v>143.1694071105341</v>
       </c>
       <c r="G120" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H120" t="n">
-        <v>0.5314673639927255</v>
+        <v>0.5636492384363546</v>
       </c>
       <c r="I120" t="n">
-        <v>10427.64164300872</v>
+        <v>10904.45796941567</v>
       </c>
       <c r="J120" t="n">
-        <v>3836100.67012827</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44631</v>
+        <v>44641</v>
       </c>
       <c r="B121" s="2" t="n">
         <v>45012</v>
@@ -4791,27 +4791,27 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>728.6446365023374</v>
+        <v>530.8262573697086</v>
       </c>
       <c r="F121" t="n">
-        <v>147.6187598351267</v>
+        <v>145.064826116792</v>
       </c>
       <c r="G121" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H121" t="n">
-        <v>0.5434057725823431</v>
+        <v>0.5730547573116281</v>
       </c>
       <c r="I121" t="n">
-        <v>9531.745084894934</v>
+        <v>11422.94561959457</v>
       </c>
       <c r="J121" t="n">
-        <v>3845632.415213164</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44634</v>
+        <v>44642</v>
       </c>
       <c r="B122" s="2" t="n">
         <v>45012</v>
@@ -4827,27 +4827,27 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>705.5664969279012</v>
+        <v>511.1295640012512</v>
       </c>
       <c r="F122" t="n">
-        <v>147.9035222200835</v>
+        <v>145.6610448074753</v>
       </c>
       <c r="G122" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H122" t="n">
-        <v>0.5555822156085772</v>
+        <v>0.5813481858690736</v>
       </c>
       <c r="I122" t="n">
-        <v>9548.295107976222</v>
+        <v>11303.83393500374</v>
       </c>
       <c r="J122" t="n">
-        <v>3855180.71032114</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44635</v>
+        <v>44643</v>
       </c>
       <c r="B123" s="2" t="n">
         <v>45012</v>
@@ -4863,27 +4863,27 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>714.0891394051147</v>
+        <v>486.8232980427284</v>
       </c>
       <c r="F123" t="n">
-        <v>141.5854933110123</v>
+        <v>147.7166512984</v>
       </c>
       <c r="G123" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H123" t="n">
-        <v>0.5630784496751252</v>
+        <v>0.582260044367681</v>
       </c>
       <c r="I123" t="n">
-        <v>7253.612722122016</v>
+        <v>11767.0083114329</v>
       </c>
       <c r="J123" t="n">
-        <v>3862434.323043263</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44636</v>
+        <v>44644</v>
       </c>
       <c r="B124" s="2" t="n">
         <v>45012</v>
@@ -4899,27 +4899,27 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>692.6233796831934</v>
+        <v>468.9514841521155</v>
       </c>
       <c r="F124" t="n">
-        <v>141.3007270860122</v>
+        <v>148.0992845424493</v>
       </c>
       <c r="G124" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H124" t="n">
-        <v>0.5431552242588092</v>
+        <v>0.5840040090117031</v>
       </c>
       <c r="I124" t="n">
-        <v>6679.499843664597</v>
+        <v>11514.46503839739</v>
       </c>
       <c r="J124" t="n">
-        <v>3869113.822886927</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44637</v>
+        <v>44645</v>
       </c>
       <c r="B125" s="2" t="n">
         <v>45012</v>
@@ -4935,27 +4935,27 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>667.1186699685011</v>
+        <v>456.1262880675686</v>
       </c>
       <c r="F125" t="n">
-        <v>142.3329613421382</v>
+        <v>147.0225277276259</v>
       </c>
       <c r="G125" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H125" t="n">
-        <v>0.5465417903781131</v>
+        <v>0.5873896593995068</v>
       </c>
       <c r="I125" t="n">
-        <v>6850.012455433944</v>
+        <v>10708.42272580366</v>
       </c>
       <c r="J125" t="n">
-        <v>3875963.835342361</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44638</v>
+        <v>44648</v>
       </c>
       <c r="B126" s="2" t="n">
         <v>45012</v>
@@ -4971,27 +4971,27 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>643.2193846567708</v>
+        <v>438.4384418877432</v>
       </c>
       <c r="F126" t="n">
-        <v>143.1694374696094</v>
+        <v>147.6276134712469</v>
       </c>
       <c r="G126" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H126" t="n">
-        <v>0.5636491725658711</v>
+        <v>0.5883707626651529</v>
       </c>
       <c r="I126" t="n">
-        <v>7114.609652771097</v>
+        <v>10558.46011111138</v>
       </c>
       <c r="J126" t="n">
-        <v>3883078.444995132</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44641</v>
+        <v>44649</v>
       </c>
       <c r="B127" s="2" t="n">
         <v>45012</v>
@@ -5007,27 +5007,27 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>614.4545620896927</v>
+        <v>429.3051150889306</v>
       </c>
       <c r="F127" t="n">
-        <v>145.064826116792</v>
+        <v>145.5008670997977</v>
       </c>
       <c r="G127" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H127" t="n">
-        <v>0.5730547068681013</v>
+        <v>0.5878956314065384</v>
       </c>
       <c r="I127" t="n">
-        <v>7577.251854726762</v>
+        <v>9425.488540323046</v>
       </c>
       <c r="J127" t="n">
-        <v>3890655.696849859</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44642</v>
+        <v>44650</v>
       </c>
       <c r="B128" s="2" t="n">
         <v>45012</v>
@@ -5043,27 +5043,27 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>591.6548452220158</v>
+        <v>409.990841840881</v>
       </c>
       <c r="F128" t="n">
-        <v>145.6610295858818</v>
+        <v>147.0403334813969</v>
       </c>
       <c r="G128" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H128" t="n">
-        <v>0.581348194632651</v>
+        <v>0.6014072275967629</v>
       </c>
       <c r="I128" t="n">
-        <v>7606.753992439299</v>
+        <v>9632.606526688731</v>
       </c>
       <c r="J128" t="n">
-        <v>3898262.450842298</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44643</v>
+        <v>44651</v>
       </c>
       <c r="B129" s="2" t="n">
         <v>45012</v>
@@ -5079,27 +5079,27 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>563.5194519097791</v>
+        <v>399.3019708662189</v>
       </c>
       <c r="F129" t="n">
-        <v>147.7165902117251</v>
+        <v>145.4652765255262</v>
       </c>
       <c r="G129" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H129" t="n">
-        <v>0.5822602839610314</v>
+        <v>0.6177634631844746</v>
       </c>
       <c r="I129" t="n">
-        <v>7930.851622543332</v>
+        <v>8752.551501404141</v>
       </c>
       <c r="J129" t="n">
-        <v>3906193.302464841</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44644</v>
+        <v>44652</v>
       </c>
       <c r="B130" s="2" t="n">
         <v>45012</v>
@@ -5115,27 +5115,27 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>542.8319661820974</v>
+        <v>385.549043219808</v>
       </c>
       <c r="F130" t="n">
-        <v>148.0992387303007</v>
+        <v>144.8512455332026</v>
       </c>
       <c r="G130" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H130" t="n">
-        <v>0.5840040875086279</v>
+        <v>0.635916992406815</v>
       </c>
       <c r="I130" t="n">
-        <v>7783.886168505575</v>
+        <v>8214.353352942546</v>
       </c>
       <c r="J130" t="n">
-        <v>3913977.188633347</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44645</v>
+        <v>44655</v>
       </c>
       <c r="B131" s="2" t="n">
         <v>45012</v>
@@ -5151,27 +5151,27 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>527.9860692878871</v>
+        <v>364.8370088215479</v>
       </c>
       <c r="F131" t="n">
-        <v>147.0225277276259</v>
+        <v>146.826759407034</v>
       </c>
       <c r="G131" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H131" t="n">
-        <v>0.5873897612029514</v>
+        <v>0.6266918795836245</v>
       </c>
       <c r="I131" t="n">
-        <v>7280.972336836671</v>
+        <v>8493.81162386874</v>
       </c>
       <c r="J131" t="n">
-        <v>3921258.160970184</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44648</v>
+        <v>44656</v>
       </c>
       <c r="B132" s="2" t="n">
         <v>45012</v>
@@ -5187,27 +5187,27 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>507.5115050436121</v>
+        <v>350.3129051287885</v>
       </c>
       <c r="F132" t="n">
-        <v>147.6276439062685</v>
+        <v>146.8534489599401</v>
       </c>
       <c r="G132" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H132" t="n">
-        <v>0.5883706428123353</v>
+        <v>0.6220168766147427</v>
       </c>
       <c r="I132" t="n">
-        <v>7191.004010261754</v>
+        <v>8165.02401959156</v>
       </c>
       <c r="J132" t="n">
-        <v>3928449.164980446</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44649</v>
+        <v>44657</v>
       </c>
       <c r="B133" s="2" t="n">
         <v>45012</v>
@@ -5223,27 +5223,27 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>496.9393931203397</v>
+        <v>337.0428329480673</v>
       </c>
       <c r="F133" t="n">
-        <v>145.5008670997977</v>
+        <v>146.6754853110588</v>
       </c>
       <c r="G133" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H133" t="n">
-        <v>0.58789558092747</v>
+        <v>0.6328769650909688</v>
       </c>
       <c r="I133" t="n">
-        <v>6414.18642189649</v>
+        <v>7795.74642514481</v>
       </c>
       <c r="J133" t="n">
-        <v>3934863.351402342</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44650</v>
+        <v>44658</v>
       </c>
       <c r="B134" s="2" t="n">
         <v>45012</v>
@@ -5259,27 +5259,27 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>474.5823316580106</v>
+        <v>322.8900135483764</v>
       </c>
       <c r="F134" t="n">
-        <v>147.0403182447372</v>
+        <v>146.9157317632987</v>
       </c>
       <c r="G134" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H134" t="n">
-        <v>0.6014073401235971</v>
+        <v>0.636841270095907</v>
       </c>
       <c r="I134" t="n">
-        <v>6705.787914038247</v>
+        <v>7545.967172808255</v>
       </c>
       <c r="J134" t="n">
-        <v>3941569.13931638</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44651</v>
+        <v>44659</v>
       </c>
       <c r="B135" s="2" t="n">
         <v>45012</v>
@@ -5295,27 +5295,27 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>462.2094415482932</v>
+        <v>306.0595442954746</v>
       </c>
       <c r="F135" t="n">
-        <v>145.4652765255262</v>
+        <v>148.6509752311359</v>
       </c>
       <c r="G135" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H135" t="n">
-        <v>0.6177635147581214</v>
+        <v>0.632565310669671</v>
       </c>
       <c r="I135" t="n">
-        <v>6258.848504219257</v>
+        <v>7683.725495024615</v>
       </c>
       <c r="J135" t="n">
-        <v>3947827.987820599</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44652</v>
+        <v>44662</v>
       </c>
       <c r="B136" s="2" t="n">
         <v>45012</v>
@@ -5331,27 +5331,27 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>446.2896387769244</v>
+        <v>291.0533013271473</v>
       </c>
       <c r="F136" t="n">
-        <v>144.8513060331575</v>
+        <v>150.0035578744638</v>
       </c>
       <c r="G136" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H136" t="n">
-        <v>0.6359167293166564</v>
+        <v>0.6188187473711493</v>
       </c>
       <c r="I136" t="n">
-        <v>6046.613283459592</v>
+        <v>7700.662474758057</v>
       </c>
       <c r="J136" t="n">
-        <v>3953874.601104059</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44655</v>
+        <v>44663</v>
       </c>
       <c r="B137" s="2" t="n">
         <v>45012</v>
@@ -5367,27 +5367,27 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>422.3147573810114</v>
+        <v>279.1447356744279</v>
       </c>
       <c r="F137" t="n">
-        <v>146.826759407034</v>
+        <v>150.3594921770473</v>
       </c>
       <c r="G137" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H137" t="n">
-        <v>0.6266919321264892</v>
+        <v>0.6168768661690458</v>
       </c>
       <c r="I137" t="n">
-        <v>6161.610506499946</v>
+        <v>7484.943885992527</v>
       </c>
       <c r="J137" t="n">
-        <v>3960036.211610559</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44656</v>
+        <v>44664</v>
       </c>
       <c r="B138" s="2" t="n">
         <v>45012</v>
@@ -5403,27 +5403,27 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>405.5024282383699</v>
+        <v>265.3483516554601</v>
       </c>
       <c r="F138" t="n">
-        <v>146.8534643747169</v>
+        <v>152.1036300260633</v>
       </c>
       <c r="G138" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H138" t="n">
-        <v>0.622016760977778</v>
+        <v>0.6057476605973582</v>
       </c>
       <c r="I138" t="n">
-        <v>5878.916687863459</v>
+        <v>7577.813876212744</v>
       </c>
       <c r="J138" t="n">
-        <v>3965915.128298422</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44657</v>
+        <v>44665</v>
       </c>
       <c r="B139" s="2" t="n">
         <v>45012</v>
@@ -5439,27 +5439,27 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>390.1418298308978</v>
+        <v>255.8840239433647</v>
       </c>
       <c r="F139" t="n">
-        <v>146.6754700504177</v>
+        <v>151.8900653979094</v>
       </c>
       <c r="G139" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H139" t="n">
-        <v>0.6328769796026738</v>
+        <v>0.619037273648641</v>
       </c>
       <c r="I139" t="n">
-        <v>5711.027867749332</v>
+        <v>7252.883984153582</v>
       </c>
       <c r="J139" t="n">
-        <v>3971626.156166172</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="B140" s="2" t="n">
         <v>45012</v>
@@ -5475,27 +5475,27 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>373.7592440126865</v>
+        <v>242.7059278513678</v>
       </c>
       <c r="F140" t="n">
-        <v>146.9157468394571</v>
+        <v>153.9456357485112</v>
       </c>
       <c r="G140" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H140" t="n">
-        <v>0.636841102464878</v>
+        <v>0.6225886348878227</v>
       </c>
       <c r="I140" t="n">
-        <v>5562.67578170211</v>
+        <v>7378.257616410348</v>
       </c>
       <c r="J140" t="n">
-        <v>3977188.831947874</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44659</v>
+        <v>44670</v>
       </c>
       <c r="B141" s="2" t="n">
         <v>45012</v>
@@ -5511,27 +5511,27 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>354.2772519173268</v>
+        <v>233.1072332562698</v>
       </c>
       <c r="F141" t="n">
-        <v>148.6509902313175</v>
+        <v>154.0168498862622</v>
       </c>
       <c r="G141" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H141" t="n">
-        <v>0.632565299098633</v>
+        <v>0.642748087529568</v>
       </c>
       <c r="I141" t="n">
-        <v>5626.197015985644</v>
+        <v>7103.057933780999</v>
       </c>
       <c r="J141" t="n">
-        <v>3982815.02896386</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44662</v>
+        <v>44671</v>
       </c>
       <c r="B142" s="2" t="n">
         <v>45012</v>
@@ -5547,27 +5547,27 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>336.9069066715155</v>
+        <v>225.2926188217097</v>
       </c>
       <c r="F142" t="n">
-        <v>150.0035578744638</v>
+        <v>152.717599307826</v>
       </c>
       <c r="G142" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H142" t="n">
-        <v>0.6188187992819014</v>
+        <v>0.6390633942712817</v>
       </c>
       <c r="I142" t="n">
-        <v>5516.061460749087</v>
+        <v>6572.225662021271</v>
       </c>
       <c r="J142" t="n">
-        <v>3988331.090424609</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44663</v>
+        <v>44672</v>
       </c>
       <c r="B143" s="2" t="n">
         <v>45012</v>
@@ -5583,27 +5583,27 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>323.1221869271722</v>
+        <v>215.8590183607475</v>
       </c>
       <c r="F143" t="n">
-        <v>150.3595074322257</v>
+        <v>152.8244287817113</v>
       </c>
       <c r="G143" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H143" t="n">
-        <v>0.6168769071434951</v>
+        <v>0.6448344428172289</v>
       </c>
       <c r="I143" t="n">
-        <v>5344.717674355497</v>
+        <v>6320.089219185618</v>
       </c>
       <c r="J143" t="n">
-        <v>3993675.808098964</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44664</v>
+        <v>44673</v>
       </c>
       <c r="B144" s="2" t="n">
         <v>45012</v>
@@ -5619,27 +5619,27 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>307.1523012150673</v>
+        <v>216.0632983434526</v>
       </c>
       <c r="F144" t="n">
-        <v>152.1036300260633</v>
+        <v>146.2750791377332</v>
       </c>
       <c r="G144" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H144" t="n">
-        <v>0.6057474657799332</v>
+        <v>0.6459843805147287</v>
       </c>
       <c r="I144" t="n">
-        <v>5313.406404740424</v>
+        <v>4910.99620225746</v>
       </c>
       <c r="J144" t="n">
-        <v>3998989.214503705</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44665</v>
+        <v>44676</v>
       </c>
       <c r="B145" s="2" t="n">
         <v>45012</v>
@@ -5655,27 +5655,27 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>296.1969360412326</v>
+        <v>218.4599293757184</v>
       </c>
       <c r="F145" t="n">
-        <v>151.8900653979094</v>
+        <v>138.5778053862283</v>
       </c>
       <c r="G145" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H145" t="n">
-        <v>0.6190372740812262</v>
+        <v>0.6487757392164437</v>
       </c>
       <c r="I145" t="n">
-        <v>5197.147433997293</v>
+        <v>3283.924385912895</v>
       </c>
       <c r="J145" t="n">
-        <v>4004186.361937702</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44669</v>
+        <v>44677</v>
       </c>
       <c r="B146" s="2" t="n">
         <v>45012</v>
@@ -5691,27 +5691,27 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>280.9427695279571</v>
+        <v>205.1064585896272</v>
       </c>
       <c r="F146" t="n">
-        <v>153.9456053871274</v>
+        <v>141.3274427367984</v>
       </c>
       <c r="G146" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H146" t="n">
-        <v>0.6225886627843765</v>
+        <v>0.6503889972778348</v>
       </c>
       <c r="I146" t="n">
-        <v>5317.312362117462</v>
+        <v>3647.161269699762</v>
       </c>
       <c r="J146" t="n">
-        <v>4009503.67429982</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44670</v>
+        <v>44678</v>
       </c>
       <c r="B147" s="2" t="n">
         <v>45012</v>
@@ -5727,27 +5727,27 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>269.8318586698373</v>
+        <v>198.5232105729837</v>
       </c>
       <c r="F147" t="n">
-        <v>154.0168191466799</v>
+        <v>139.7790640518305</v>
       </c>
       <c r="G147" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H147" t="n">
-        <v>0.6427481654605567</v>
+        <v>0.6843181299841916</v>
       </c>
       <c r="I147" t="n">
-        <v>5284.736621744963</v>
+        <v>3222.710186648685</v>
       </c>
       <c r="J147" t="n">
-        <v>4014788.410921565</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44671</v>
+        <v>44705</v>
       </c>
       <c r="B148" s="2" t="n">
         <v>45012</v>
@@ -5763,27 +5763,27 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>260.7859926630666</v>
+        <v>172.6367992137825</v>
       </c>
       <c r="F148" t="n">
-        <v>152.7176296644402</v>
+        <v>153.139601486305</v>
       </c>
       <c r="G148" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H148" t="n">
-        <v>0.6390633182180673</v>
+        <v>0.7267297540624408</v>
       </c>
       <c r="I148" t="n">
-        <v>4861.767874473026</v>
+        <v>5109.005678554362</v>
       </c>
       <c r="J148" t="n">
-        <v>4019650.178796038</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44672</v>
+        <v>44706</v>
       </c>
       <c r="B149" s="2" t="n">
         <v>45012</v>
@@ -5799,315 +5799,315 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>249.8662686288031</v>
+        <v>161.1270461025063</v>
       </c>
       <c r="F149" t="n">
-        <v>152.8244128590932</v>
+        <v>155.3377113578441</v>
       </c>
       <c r="G149" t="n">
-        <v>123.3913995667649</v>
+        <v>123.3914071620266</v>
       </c>
       <c r="H149" t="n">
-        <v>0.6448346130275543</v>
+        <v>0.7292514711992798</v>
       </c>
       <c r="I149" t="n">
-        <v>4717.466888598122</v>
+        <v>5122.561512776108</v>
       </c>
       <c r="J149" t="n">
-        <v>4024367.645684636</v>
+        <v>2741521.003316457</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44673</v>
+        <v>45036</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>45012</v>
+        <v>45189</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>250.1027531098885</v>
+        <v>1300.944093566196</v>
       </c>
       <c r="F150" t="n">
-        <v>146.2750479697945</v>
+        <v>115.3276175769848</v>
       </c>
       <c r="G150" t="n">
-        <v>123.3913995667649</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H150" t="n">
-        <v>0.6459845703040844</v>
+        <v>0.7370776460741073</v>
       </c>
       <c r="I150" t="n">
-        <v>3672.220609587313</v>
+        <v>53658.41060200363</v>
       </c>
       <c r="J150" t="n">
-        <v>4028039.866294223</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44676</v>
+        <v>45037</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>45012</v>
+        <v>45189</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>252.8769533879311</v>
+        <v>1211.580608248973</v>
       </c>
       <c r="F151" t="n">
-        <v>138.5777752096955</v>
+        <v>115.0738510598104</v>
       </c>
       <c r="G151" t="n">
-        <v>123.3913995667649</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H151" t="n">
-        <v>0.6487758800709852</v>
+        <v>0.7308460167089779</v>
       </c>
       <c r="I151" t="n">
-        <v>2466.17933151123</v>
+        <v>50280.00551032069</v>
       </c>
       <c r="J151" t="n">
-        <v>4030506.045625735</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44677</v>
+        <v>45040</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>45012</v>
+        <v>45189</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>237.4196427656927</v>
+        <v>1119.62994027175</v>
       </c>
       <c r="F152" t="n">
-        <v>141.3274582188211</v>
+        <v>111.4366776109552</v>
       </c>
       <c r="G152" t="n">
-        <v>123.3913995667649</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H152" t="n">
-        <v>0.6503889790237734</v>
+        <v>0.7107664608020031</v>
       </c>
       <c r="I152" t="n">
-        <v>2745.78176013008</v>
+        <v>50536.38583718525</v>
       </c>
       <c r="J152" t="n">
-        <v>4033251.827385865</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44678</v>
+        <v>45041</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>45012</v>
+        <v>45189</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>229.7992727495083</v>
+        <v>1055.671401488316</v>
       </c>
       <c r="F153" t="n">
-        <v>139.7790640518305</v>
+        <v>112.3107298679632</v>
       </c>
       <c r="G153" t="n">
-        <v>123.3913995667649</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H153" t="n">
-        <v>0.6843180258119784</v>
+        <v>0.7112395354548821</v>
       </c>
       <c r="I153" t="n">
-        <v>2552.800023160627</v>
+        <v>46726.79733901509</v>
       </c>
       <c r="J153" t="n">
-        <v>4035804.627409025</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44705</v>
+        <v>45042</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>45012</v>
+        <v>45189</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>199.8346061759217</v>
+        <v>1011.881791236635</v>
       </c>
       <c r="F154" t="n">
-        <v>153.1396165727436</v>
+        <v>110.6566009297881</v>
       </c>
       <c r="G154" t="n">
-        <v>123.3913995667649</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H154" t="n">
-        <v>0.7267296348822111</v>
+        <v>0.7094892823740129</v>
       </c>
       <c r="I154" t="n">
-        <v>4297.807034630629</v>
+        <v>46462.3367808157</v>
       </c>
       <c r="J154" t="n">
-        <v>4040102.434443656</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44706</v>
+        <v>45043</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>45012</v>
+        <v>45189</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>186.5116241818353</v>
+        <v>957.4945261054971</v>
       </c>
       <c r="F155" t="n">
-        <v>155.337681235198</v>
+        <v>107.9968787747965</v>
       </c>
       <c r="G155" t="n">
-        <v>123.3913995667649</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H155" t="n">
-        <v>0.729251564514287</v>
+        <v>0.6997811500041925</v>
       </c>
       <c r="I155" t="n">
-        <v>4324.159479183627</v>
+        <v>46511.71900105103</v>
       </c>
       <c r="J155" t="n">
-        <v>4044426.59392284</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44707</v>
+        <v>45044</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>45012</v>
+        <v>45189</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>173.1569661814153</v>
+        <v>928.2724411997805</v>
       </c>
       <c r="F156" t="n">
-        <v>158.3432736290786</v>
+        <v>107.6115380306062</v>
       </c>
       <c r="G156" t="n">
-        <v>123.3913995667649</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H156" t="n">
-        <v>0.7441973135392597</v>
+        <v>0.7054024255261627</v>
       </c>
       <c r="I156" t="n">
-        <v>4484.125842047527</v>
+        <v>45449.91400951183</v>
       </c>
       <c r="J156" t="n">
-        <v>4048910.719764887</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44708</v>
+        <v>45047</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>45012</v>
+        <v>45189</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>163.4581031003234</v>
+        <v>847.917780269336</v>
       </c>
       <c r="F157" t="n">
-        <v>158.3701569636903</v>
+        <v>107.5551445472653</v>
       </c>
       <c r="G157" t="n">
-        <v>123.3913995667649</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H157" t="n">
-        <v>0.7399873860362616</v>
+        <v>0.691632933443631</v>
       </c>
       <c r="I157" t="n">
-        <v>4212.266958455709</v>
+        <v>41563.42009720553</v>
       </c>
       <c r="J157" t="n">
-        <v>4053122.986723342</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45036</v>
+        <v>45048</v>
       </c>
       <c r="B158" s="2" t="n">
         <v>45189</v>
@@ -6123,27 +6123,27 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1923.344052614766</v>
+        <v>828.5290576435109</v>
       </c>
       <c r="F158" t="n">
-        <v>115.3276099624829</v>
+        <v>107.3107788156417</v>
       </c>
       <c r="G158" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H158" t="n">
-        <v>0.7370777407706965</v>
+        <v>0.6999614849329526</v>
       </c>
       <c r="I158" t="n">
-        <v>79329.80570527761</v>
+        <v>40815.48353988263</v>
       </c>
       <c r="J158" t="n">
-        <v>1437194.698068084</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45037</v>
+        <v>45049</v>
       </c>
       <c r="B159" s="2" t="n">
         <v>45189</v>
@@ -6159,27 +6159,27 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1791.226526407478</v>
+        <v>826.8692503162416</v>
       </c>
       <c r="F159" t="n">
-        <v>115.0738510598104</v>
+        <v>103.137893279879</v>
       </c>
       <c r="G159" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H159" t="n">
-        <v>0.730846017249743</v>
+        <v>0.7030094051968325</v>
       </c>
       <c r="I159" t="n">
-        <v>74335.05633358184</v>
+        <v>44184.14787412417</v>
       </c>
       <c r="J159" t="n">
-        <v>1791988.145249443</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45040</v>
+        <v>45050</v>
       </c>
       <c r="B160" s="2" t="n">
         <v>45189</v>
@@ -6195,27 +6195,27 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1655.284911052554</v>
+        <v>776.0699060943116</v>
       </c>
       <c r="F160" t="n">
-        <v>111.4366700724776</v>
+        <v>100.5533445193809</v>
       </c>
       <c r="G160" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H160" t="n">
-        <v>0.7107664814505205</v>
+        <v>0.6898881365386115</v>
       </c>
       <c r="I160" t="n">
-        <v>74714.1141960543</v>
+        <v>43475.45150126627</v>
       </c>
       <c r="J160" t="n">
-        <v>2125875.812150466</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45041</v>
+        <v>45051</v>
       </c>
       <c r="B161" s="2" t="n">
         <v>45189</v>
@@ -6231,27 +6231,27 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1560.726928360815</v>
+        <v>722.0458456485404</v>
       </c>
       <c r="F161" t="n">
-        <v>112.3107221317506</v>
+        <v>101.0232587095237</v>
       </c>
       <c r="G161" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H161" t="n">
-        <v>0.7112394869469751</v>
+        <v>0.6836480301655828</v>
       </c>
       <c r="I161" t="n">
-        <v>69081.92141320131</v>
+        <v>40109.72297691467</v>
       </c>
       <c r="J161" t="n">
-        <v>2439326.023351541</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45042</v>
+        <v>45054</v>
       </c>
       <c r="B162" s="2" t="n">
         <v>45189</v>
@@ -6267,27 +6267,27 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1495.988062623453</v>
+        <v>680.0054554831107</v>
       </c>
       <c r="F162" t="n">
-        <v>110.6566163324784</v>
+        <v>102.7055788107181</v>
       </c>
       <c r="G162" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H162" t="n">
-        <v>0.7094894520511689</v>
+        <v>0.6853408882776569</v>
       </c>
       <c r="I162" t="n">
-        <v>68690.92970497224</v>
+        <v>36630.38801689848</v>
       </c>
       <c r="J162" t="n">
-        <v>2742248.859845176</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45043</v>
+        <v>45055</v>
       </c>
       <c r="B163" s="2" t="n">
         <v>45189</v>
@@ -6303,27 +6303,27 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1415.580231214268</v>
+        <v>657.386404485655</v>
       </c>
       <c r="F163" t="n">
-        <v>107.9968787747965</v>
+        <v>99.82966848525642</v>
       </c>
       <c r="G163" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H163" t="n">
-        <v>0.6997811505882128</v>
+        <v>0.6806116656515502</v>
       </c>
       <c r="I163" t="n">
-        <v>68763.93425311774</v>
+        <v>37302.53417796239</v>
       </c>
       <c r="J163" t="n">
-        <v>3032654.974977857</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45044</v>
+        <v>45056</v>
       </c>
       <c r="B164" s="2" t="n">
         <v>45189</v>
@@ -6339,27 +6339,27 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1372.377680425139</v>
+        <v>623.2106877079992</v>
       </c>
       <c r="F164" t="n">
-        <v>107.6115380306062</v>
+        <v>102.2168600951347</v>
       </c>
       <c r="G164" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H164" t="n">
-        <v>0.7054024260450881</v>
+        <v>0.686845940396713</v>
       </c>
       <c r="I164" t="n">
-        <v>67194.13854625064</v>
+        <v>33875.55437552516</v>
       </c>
       <c r="J164" t="n">
-        <v>3314726.925019784</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45047</v>
+        <v>45057</v>
       </c>
       <c r="B165" s="2" t="n">
         <v>45189</v>
@@ -6375,27 +6375,27 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1253.579308155811</v>
+        <v>637.2840458756149</v>
       </c>
       <c r="F165" t="n">
-        <v>107.5551369819945</v>
+        <v>102.9593342978449</v>
       </c>
       <c r="G165" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H165" t="n">
-        <v>0.6916328171852535</v>
+        <v>0.71420339424239</v>
       </c>
       <c r="I165" t="n">
-        <v>61448.25465338929</v>
+        <v>34167.36596427271</v>
       </c>
       <c r="J165" t="n">
-        <v>3572452.328533055</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45048</v>
+        <v>45061</v>
       </c>
       <c r="B166" s="2" t="n">
         <v>45189</v>
@@ -6411,27 +6411,27 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1224.91505567778</v>
+        <v>598.6486528873228</v>
       </c>
       <c r="F166" t="n">
-        <v>107.3107866791936</v>
+        <v>104.3972885215237</v>
       </c>
       <c r="G166" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H166" t="n">
-        <v>0.6999615367191278</v>
+        <v>0.7157407507272647</v>
       </c>
       <c r="I166" t="n">
-        <v>60342.49173605379</v>
+        <v>31235.13748600076</v>
       </c>
       <c r="J166" t="n">
-        <v>3824583.910245133</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45049</v>
+        <v>45079</v>
       </c>
       <c r="B167" s="2" t="n">
         <v>45189</v>
@@ -6447,27 +6447,27 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1222.460990224043</v>
+        <v>564.4351168814836</v>
       </c>
       <c r="F167" t="n">
-        <v>103.1379089206367</v>
+        <v>102.3088495736876</v>
       </c>
       <c r="G167" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H167" t="n">
-        <v>0.7030094386551761</v>
+        <v>0.7064821496696372</v>
       </c>
       <c r="I167" t="n">
-        <v>65322.77838544358</v>
+        <v>30628.79771985963</v>
       </c>
       <c r="J167" t="n">
-        <v>4081311.537284779</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45050</v>
+        <v>45082</v>
       </c>
       <c r="B168" s="2" t="n">
         <v>45189</v>
@@ -6483,27 +6483,27 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1147.35822715655</v>
+        <v>522.8181899347385</v>
       </c>
       <c r="F168" t="n">
-        <v>100.5533445193809</v>
+        <v>104.8319607949189</v>
       </c>
       <c r="G168" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H168" t="n">
-        <v>0.6898881370969906</v>
+        <v>0.7063559312711944</v>
       </c>
       <c r="I168" t="n">
-        <v>64275.04812188898</v>
+        <v>27051.34693243106</v>
       </c>
       <c r="J168" t="n">
-        <v>4325232.340630976</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45051</v>
+        <v>45083</v>
       </c>
       <c r="B169" s="2" t="n">
         <v>45189</v>
@@ -6519,27 +6519,27 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1067.488349306555</v>
+        <v>507.4306085375487</v>
       </c>
       <c r="F169" t="n">
-        <v>101.0232587095237</v>
+        <v>100.3548723888951</v>
       </c>
       <c r="G169" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H169" t="n">
-        <v>0.683648171165943</v>
+        <v>0.6985841988972341</v>
       </c>
       <c r="I169" t="n">
-        <v>59299.10684063308</v>
+        <v>28526.98356852431</v>
       </c>
       <c r="J169" t="n">
-        <v>4551671.70599364</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45054</v>
+        <v>45084</v>
       </c>
       <c r="B170" s="2" t="n">
         <v>45189</v>
@@ -6555,27 +6555,27 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1005.334691264501</v>
+        <v>479.3216764619401</v>
       </c>
       <c r="F170" t="n">
-        <v>102.7055788107181</v>
+        <v>103.9213657411801</v>
       </c>
       <c r="G170" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H170" t="n">
-        <v>0.6853409595598748</v>
+        <v>0.7086498707316912</v>
       </c>
       <c r="I170" t="n">
-        <v>54155.16886379842</v>
+        <v>25237.24422490601</v>
       </c>
       <c r="J170" t="n">
-        <v>4763235.525086053</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45055</v>
+        <v>45085</v>
       </c>
       <c r="B171" s="2" t="n">
         <v>45189</v>
@@ -6591,27 +6591,27 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>971.8941174378615</v>
+        <v>448.8408606870383</v>
       </c>
       <c r="F171" t="n">
-        <v>99.82966100929438</v>
+        <v>107.2696937023765</v>
       </c>
       <c r="G171" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H171" t="n">
-        <v>0.6806116856212049</v>
+        <v>0.7151289940404947</v>
       </c>
       <c r="I171" t="n">
-        <v>55148.88628845646</v>
+        <v>22129.50195226736</v>
       </c>
       <c r="J171" t="n">
-        <v>4970557.157943714</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45056</v>
+        <v>45086</v>
       </c>
       <c r="B172" s="2" t="n">
         <v>45189</v>
@@ -6627,27 +6627,27 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>921.3678820128126</v>
+        <v>429.6973336249634</v>
       </c>
       <c r="F172" t="n">
-        <v>102.2168600951347</v>
+        <v>107.0989604292889</v>
       </c>
       <c r="G172" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H172" t="n">
-        <v>0.6868459409374478</v>
+        <v>0.7179096309602844</v>
       </c>
       <c r="I172" t="n">
-        <v>50082.35123897874</v>
+        <v>21259.01943186447</v>
       </c>
       <c r="J172" t="n">
-        <v>5164901.192313526</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45057</v>
+        <v>45089</v>
       </c>
       <c r="B173" s="2" t="n">
         <v>45189</v>
@@ -6663,27 +6663,27 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>942.1742327856074</v>
+        <v>413.6359416966199</v>
       </c>
       <c r="F173" t="n">
-        <v>102.9593342978449</v>
+        <v>105.7520280423522</v>
       </c>
       <c r="G173" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H173" t="n">
-        <v>0.7142033947915364</v>
+        <v>0.7188243507318529</v>
       </c>
       <c r="I173" t="n">
-        <v>50513.77198803959</v>
+        <v>21021.53128692623</v>
       </c>
       <c r="J173" t="n">
-        <v>5362934.368089794</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45061</v>
+        <v>45091</v>
       </c>
       <c r="B174" s="2" t="n">
         <v>45189</v>
@@ -6699,27 +6699,27 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>885.0548493454908</v>
+        <v>387.5393672642421</v>
       </c>
       <c r="F174" t="n">
-        <v>104.3972885215237</v>
+        <v>108.4363863780358</v>
       </c>
       <c r="G174" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H174" t="n">
-        <v>0.7157407512699985</v>
+        <v>0.7237302050103797</v>
       </c>
       <c r="I174" t="n">
-        <v>46178.70241851624</v>
+        <v>18654.97397124383</v>
       </c>
       <c r="J174" t="n">
-        <v>5547689.099391322</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45079</v>
+        <v>45092</v>
       </c>
       <c r="B175" s="2" t="n">
         <v>45189</v>
@@ -6735,315 +6735,315 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>834.4728943452449</v>
+        <v>370.8591304877294</v>
       </c>
       <c r="F175" t="n">
-        <v>102.3088571046341</v>
+        <v>105.9607101573144</v>
       </c>
       <c r="G175" t="n">
-        <v>156.7693412648516</v>
+        <v>156.769325971277</v>
       </c>
       <c r="H175" t="n">
-        <v>0.7064822021844008</v>
+        <v>0.7190645997978788</v>
       </c>
       <c r="I175" t="n">
-        <v>45282.27313718278</v>
+        <v>18770.16491215519</v>
       </c>
       <c r="J175" t="n">
-        <v>5723627.613770945</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45082</v>
+        <v>45036</v>
       </c>
       <c r="B176" s="2" t="n">
         <v>45189</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>772.9453179397157</v>
+        <v>1765.002778873308</v>
       </c>
       <c r="F176" t="n">
-        <v>104.8319607949189</v>
+        <v>155.3267244749899</v>
       </c>
       <c r="G176" t="n">
-        <v>156.7693412648516</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H176" t="n">
-        <v>0.7063558577916418</v>
+        <v>0.7370776460741073</v>
       </c>
       <c r="I176" t="n">
-        <v>39993.2873998792</v>
+        <v>33378.20243263754</v>
       </c>
       <c r="J176" t="n">
-        <v>5884643.561837575</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45083</v>
+        <v>45037</v>
       </c>
       <c r="B177" s="2" t="n">
         <v>45189</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>750.1962179988134</v>
+        <v>1657.778219418583</v>
       </c>
       <c r="F177" t="n">
-        <v>100.3548797760095</v>
+        <v>156.3115407460716</v>
       </c>
       <c r="G177" t="n">
-        <v>156.7693412648516</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H177" t="n">
-        <v>0.6985842508617627</v>
+        <v>0.7308460167089779</v>
       </c>
       <c r="I177" t="n">
-        <v>42174.90594072529</v>
+        <v>32983.07148398939</v>
       </c>
       <c r="J177" t="n">
-        <v>6044279.224984714</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45084</v>
+        <v>45040</v>
       </c>
       <c r="B178" s="2" t="n">
         <v>45189</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>708.6389762820977</v>
+        <v>1575.243067896592</v>
       </c>
       <c r="F178" t="n">
-        <v>103.9213583779272</v>
+        <v>155.6396726240505</v>
       </c>
       <c r="G178" t="n">
-        <v>156.7693412648516</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H178" t="n">
-        <v>0.7086496765337627</v>
+        <v>0.7107664608020031</v>
       </c>
       <c r="I178" t="n">
-        <v>37311.27440968103</v>
+        <v>30282.60068811299</v>
       </c>
       <c r="J178" t="n">
-        <v>6192544.498818855</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45085</v>
+        <v>45041</v>
       </c>
       <c r="B179" s="2" t="n">
         <v>45189</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>663.5758524930269</v>
+        <v>1484.269854055776</v>
       </c>
       <c r="F179" t="n">
-        <v>107.2696937023765</v>
+        <v>156.7625554780931</v>
       </c>
       <c r="G179" t="n">
-        <v>156.7693412648516</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H179" t="n">
-        <v>0.7151289944803141</v>
+        <v>0.7112395354548821</v>
       </c>
       <c r="I179" t="n">
-        <v>32716.73539278061</v>
+        <v>30200.38540572831</v>
       </c>
       <c r="J179" t="n">
-        <v>6329159.548049636</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45086</v>
+        <v>45042</v>
       </c>
       <c r="B180" s="2" t="n">
         <v>45189</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>635.2735701800403</v>
+        <v>1426.211524789761</v>
       </c>
       <c r="F180" t="n">
-        <v>107.0989680263872</v>
+        <v>154.8205077153895</v>
       </c>
       <c r="G180" t="n">
-        <v>156.7693412648516</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H180" t="n">
-        <v>0.7179096087787794</v>
+        <v>0.7094892823740129</v>
       </c>
       <c r="I180" t="n">
-        <v>31429.78606547433</v>
+        <v>26249.30376473887</v>
       </c>
       <c r="J180" t="n">
-        <v>6460056.263961306</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45089</v>
+        <v>45043</v>
       </c>
       <c r="B181" s="2" t="n">
         <v>45189</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>611.5282424523783</v>
+        <v>1368.277105063148</v>
       </c>
       <c r="F181" t="n">
-        <v>105.7520430865893</v>
+        <v>153.1821699134352</v>
       </c>
       <c r="G181" t="n">
-        <v>156.7693412648516</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H181" t="n">
-        <v>0.7188244535707943</v>
+        <v>0.6997811500041925</v>
       </c>
       <c r="I181" t="n">
-        <v>31078.68258995408</v>
+        <v>22941.32551299701</v>
       </c>
       <c r="J181" t="n">
-        <v>6586883.990185704</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45091</v>
+        <v>45044</v>
       </c>
       <c r="B182" s="2" t="n">
         <v>45189</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>572.9463756964851</v>
+        <v>1315.947333902883</v>
       </c>
       <c r="F182" t="n">
-        <v>108.4363785787658</v>
+        <v>151.4058222806377</v>
       </c>
       <c r="G182" t="n">
-        <v>156.7693412648516</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H182" t="n">
-        <v>0.7237301535034215</v>
+        <v>0.7054024255261627</v>
       </c>
       <c r="I182" t="n">
-        <v>27579.92026529382</v>
+        <v>19726.35436467587</v>
       </c>
       <c r="J182" t="n">
-        <v>6704172.060816647</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45092</v>
+        <v>45047</v>
       </c>
       <c r="B183" s="2" t="n">
         <v>45189</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>548.2857789050508</v>
+        <v>1225.965015933474</v>
       </c>
       <c r="F183" t="n">
-        <v>105.9607101573144</v>
+        <v>154.3602929888302</v>
       </c>
       <c r="G183" t="n">
-        <v>156.7693412648516</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H183" t="n">
-        <v>0.7190644522202039</v>
+        <v>0.691632933443631</v>
       </c>
       <c r="I183" t="n">
-        <v>27750.20688141567</v>
+        <v>21999.57637179823</v>
       </c>
       <c r="J183" t="n">
-        <v>6817769.225081414</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45036</v>
+        <v>45048</v>
       </c>
       <c r="B184" s="2" t="n">
         <v>45189</v>
@@ -7059,27 +7059,27 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2609.418174267068</v>
+        <v>1183.678067262334</v>
       </c>
       <c r="F184" t="n">
-        <v>155.3266941532582</v>
+        <v>152.1605682768775</v>
       </c>
       <c r="G184" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H184" t="n">
-        <v>0.7370777407706965</v>
+        <v>0.6999614849329526</v>
       </c>
       <c r="I184" t="n">
-        <v>36372.58630081647</v>
+        <v>18636.98380115186</v>
       </c>
       <c r="J184" t="n">
-        <v>6854141.81138223</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45037</v>
+        <v>45049</v>
       </c>
       <c r="B185" s="2" t="n">
         <v>45189</v>
@@ -7095,27 +7095,27 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2450.894557991939</v>
+        <v>1176.185189278841</v>
       </c>
       <c r="F185" t="n">
-        <v>156.3115407460716</v>
+        <v>145.5612647779286</v>
       </c>
       <c r="G185" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H185" t="n">
-        <v>0.730846017249743</v>
+        <v>0.7030094051968325</v>
       </c>
       <c r="I185" t="n">
-        <v>35638.17951658344</v>
+        <v>10757.00557552536</v>
       </c>
       <c r="J185" t="n">
-        <v>6889779.990898814</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45040</v>
+        <v>45050</v>
       </c>
       <c r="B186" s="2" t="n">
         <v>45189</v>
@@ -7131,27 +7131,27 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>2328.873060635155</v>
+        <v>1124.921367669984</v>
       </c>
       <c r="F186" t="n">
-        <v>155.6396575770399</v>
+        <v>144.6040523328401</v>
       </c>
       <c r="G186" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H186" t="n">
-        <v>0.7107664814505205</v>
+        <v>0.6898881365386115</v>
       </c>
       <c r="I186" t="n">
-        <v>31821.33188142044</v>
+        <v>9211.374674001006</v>
       </c>
       <c r="J186" t="n">
-        <v>6921601.322780235</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45041</v>
+        <v>45051</v>
       </c>
       <c r="B187" s="2" t="n">
         <v>45189</v>
@@ -7167,27 +7167,27 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>2194.376095540336</v>
+        <v>1056.166058832434</v>
       </c>
       <c r="F187" t="n">
-        <v>156.7625554780931</v>
+        <v>146.6197384482572</v>
       </c>
       <c r="G187" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H187" t="n">
-        <v>0.7112394869469751</v>
+        <v>0.6836480301655828</v>
       </c>
       <c r="I187" t="n">
-        <v>31756.07851647115</v>
+        <v>10777.27377388108</v>
       </c>
       <c r="J187" t="n">
-        <v>6953357.401296706</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45042</v>
+        <v>45054</v>
       </c>
       <c r="B188" s="2" t="n">
         <v>45189</v>
@@ -7203,27 +7203,27 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>2108.541653858952</v>
+        <v>992.2149212372915</v>
       </c>
       <c r="F188" t="n">
-        <v>154.8204922515922</v>
+        <v>148.7090425584405</v>
       </c>
       <c r="G188" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H188" t="n">
-        <v>0.7094894520511689</v>
+        <v>0.6853408882776569</v>
       </c>
       <c r="I188" t="n">
-        <v>27533.53475119776</v>
+        <v>12197.74567495133</v>
       </c>
       <c r="J188" t="n">
-        <v>6980890.936047903</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45043</v>
+        <v>45055</v>
       </c>
       <c r="B189" s="2" t="n">
         <v>45189</v>
@@ -7239,27 +7239,27 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>2022.889913545654</v>
+        <v>965.8758990801875</v>
       </c>
       <c r="F189" t="n">
-        <v>153.1821699134352</v>
+        <v>145.5244567640935</v>
       </c>
       <c r="G189" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H189" t="n">
-        <v>0.6997811505882128</v>
+        <v>0.6806116656515502</v>
       </c>
       <c r="I189" t="n">
-        <v>23734.45864758137</v>
+        <v>8798.033525134724</v>
       </c>
       <c r="J189" t="n">
-        <v>7004625.394695485</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45044</v>
+        <v>45056</v>
       </c>
       <c r="B190" s="2" t="n">
         <v>45189</v>
@@ -7275,27 +7275,27 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1945.524469088542</v>
+        <v>907.3514904201677</v>
       </c>
       <c r="F190" t="n">
-        <v>151.4058222806377</v>
+        <v>147.669009103764</v>
       </c>
       <c r="G190" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H190" t="n">
-        <v>0.7054024260450881</v>
+        <v>0.686845940396713</v>
       </c>
       <c r="I190" t="n">
-        <v>20572.27918590559</v>
+        <v>10210.80532770094</v>
       </c>
       <c r="J190" t="n">
-        <v>7025197.673881391</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45047</v>
+        <v>45057</v>
       </c>
       <c r="B191" s="2" t="n">
         <v>45189</v>
@@ -7311,27 +7311,27 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1812.492520608721</v>
+        <v>892.3005001280212</v>
       </c>
       <c r="F191" t="n">
-        <v>154.3603082905017</v>
+        <v>143.011764179643</v>
       </c>
       <c r="G191" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H191" t="n">
-        <v>0.6916328171852535</v>
+        <v>0.71420339424239</v>
       </c>
       <c r="I191" t="n">
-        <v>22495.14487628225</v>
+        <v>5885.768272045204</v>
       </c>
       <c r="J191" t="n">
-        <v>7047692.818757674</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45048</v>
+        <v>45061</v>
       </c>
       <c r="B192" s="2" t="n">
         <v>45189</v>
@@ -7347,27 +7347,27 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1749.974807786187</v>
+        <v>836.4043157791916</v>
       </c>
       <c r="F192" t="n">
-        <v>152.1605682768775</v>
+        <v>144.7145005272796</v>
       </c>
       <c r="G192" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H192" t="n">
-        <v>0.6999615367191278</v>
+        <v>0.7157407507272647</v>
       </c>
       <c r="I192" t="n">
-        <v>19286.27788287304</v>
+        <v>6941.243412039704</v>
       </c>
       <c r="J192" t="n">
-        <v>7066979.096640547</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45049</v>
+        <v>45079</v>
       </c>
       <c r="B193" s="2" t="n">
         <v>45189</v>
@@ -7383,27 +7383,27 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1738.896980618857</v>
+        <v>798.937548734137</v>
       </c>
       <c r="F193" t="n">
-        <v>145.5612801651464</v>
+        <v>143.6686649699271</v>
       </c>
       <c r="G193" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H193" t="n">
-        <v>0.7030094386551761</v>
+        <v>0.7064821496696372</v>
       </c>
       <c r="I193" t="n">
-        <v>11180.2663618344</v>
+        <v>5794.752820392407</v>
       </c>
       <c r="J193" t="n">
-        <v>7078159.363002381</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45050</v>
+        <v>45082</v>
       </c>
       <c r="B194" s="2" t="n">
         <v>45189</v>
@@ -7419,27 +7419,27 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1663.107633629659</v>
+        <v>740.162525419512</v>
       </c>
       <c r="F194" t="n">
-        <v>144.6040523328401</v>
+        <v>147.2654966881132</v>
       </c>
       <c r="G194" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H194" t="n">
-        <v>0.6898881370969906</v>
+        <v>0.7063559312711944</v>
       </c>
       <c r="I194" t="n">
-        <v>9395.115492964258</v>
+        <v>8030.6933001378</v>
       </c>
       <c r="J194" t="n">
-        <v>7087554.478495345</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45051</v>
+        <v>45083</v>
       </c>
       <c r="B195" s="2" t="n">
         <v>45189</v>
@@ -7455,27 +7455,27 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1561.458648365845</v>
+        <v>726.3700057037717</v>
       </c>
       <c r="F195" t="n">
-        <v>146.619708104021</v>
+        <v>142.5069104134203</v>
       </c>
       <c r="G195" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H195" t="n">
-        <v>0.683648171165943</v>
+        <v>0.6985841988972341</v>
       </c>
       <c r="I195" t="n">
-        <v>10892.79195403286</v>
+        <v>4424.551428018585</v>
       </c>
       <c r="J195" t="n">
-        <v>7098447.270449379</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45054</v>
+        <v>45084</v>
       </c>
       <c r="B196" s="2" t="n">
         <v>45189</v>
@@ -7491,27 +7491,27 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1466.911728010721</v>
+        <v>676.3871641817045</v>
       </c>
       <c r="F196" t="n">
-        <v>148.7090271093702</v>
+        <v>145.4996069603692</v>
       </c>
       <c r="G196" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H196" t="n">
-        <v>0.6853409595598748</v>
+        <v>0.7086498707316912</v>
       </c>
       <c r="I196" t="n">
-        <v>12359.03270440425</v>
+        <v>6144.311525654583</v>
       </c>
       <c r="J196" t="n">
-        <v>7110806.303153783</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45055</v>
+        <v>45085</v>
       </c>
       <c r="B197" s="2" t="n">
         <v>45189</v>
@@ -7527,27 +7527,27 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1427.971540851225</v>
+        <v>627.6362228736909</v>
       </c>
       <c r="F197" t="n">
-        <v>145.5244416021577</v>
+        <v>148.8547989129443</v>
       </c>
       <c r="G197" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H197" t="n">
-        <v>0.6806116856212049</v>
+        <v>0.7151289940404947</v>
       </c>
       <c r="I197" t="n">
-        <v>8852.852729754417</v>
+        <v>7807.297220259873</v>
       </c>
       <c r="J197" t="n">
-        <v>7119659.155883538</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45056</v>
+        <v>45086</v>
       </c>
       <c r="B198" s="2" t="n">
         <v>45189</v>
@@ -7563,27 +7563,27 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1341.447662565022</v>
+        <v>598.5395864521211</v>
       </c>
       <c r="F198" t="n">
-        <v>147.669009103764</v>
+        <v>148.0368971568836</v>
       </c>
       <c r="G198" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H198" t="n">
-        <v>0.6868459409374478</v>
+        <v>0.7179096309602844</v>
       </c>
       <c r="I198" t="n">
-        <v>10368.55166727788</v>
+        <v>6955.811542992303</v>
       </c>
       <c r="J198" t="n">
-        <v>7130027.707550815</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45057</v>
+        <v>45089</v>
       </c>
       <c r="B199" s="2" t="n">
         <v>45189</v>
@@ -7599,27 +7599,27 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1319.19595966162</v>
+        <v>575.4339586235315</v>
       </c>
       <c r="F199" t="n">
-        <v>143.011764179643</v>
+        <v>145.9736180926843</v>
       </c>
       <c r="G199" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H199" t="n">
-        <v>0.7142033947915364</v>
+        <v>0.7188243507318529</v>
       </c>
       <c r="I199" t="n">
-        <v>6214.758377011221</v>
+        <v>5500.013137586631</v>
       </c>
       <c r="J199" t="n">
-        <v>7136242.465927826</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45061</v>
+        <v>45091</v>
       </c>
       <c r="B200" s="2" t="n">
         <v>45189</v>
@@ -7635,27 +7635,27 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1236.557856703093</v>
+        <v>535.4749112049068</v>
       </c>
       <c r="F200" t="n">
-        <v>144.7145005272796</v>
+        <v>148.6874985589756</v>
       </c>
       <c r="G200" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H200" t="n">
-        <v>0.7157407512699985</v>
+        <v>0.7237302050103797</v>
       </c>
       <c r="I200" t="n">
-        <v>7345.003246495131</v>
+        <v>6571.298397370846</v>
       </c>
       <c r="J200" t="n">
-        <v>7143587.469174322</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45079</v>
+        <v>45092</v>
       </c>
       <c r="B201" s="2" t="n">
         <v>45189</v>
@@ -7671,315 +7671,315 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1181.16619465445</v>
+        <v>515.7521738547188</v>
       </c>
       <c r="F201" t="n">
-        <v>143.6686649699271</v>
+        <v>146.2152544058541</v>
       </c>
       <c r="G201" t="n">
-        <v>136.2452695833221</v>
+        <v>136.2452847919492</v>
       </c>
       <c r="H201" t="n">
-        <v>0.7064822021844008</v>
+        <v>0.7190645997978788</v>
       </c>
       <c r="I201" t="n">
-        <v>6052.506003566877</v>
+        <v>5054.197499375804</v>
       </c>
       <c r="J201" t="n">
-        <v>7149639.975177889</v>
+        <v>4046420.285322054</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45082</v>
+        <v>45356</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>45189</v>
+        <v>45597</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1094.271831136589</v>
+        <v>2836.454603007191</v>
       </c>
       <c r="F202" t="n">
-        <v>147.2655122353781</v>
+        <v>142.6576783930215</v>
       </c>
       <c r="G202" t="n">
-        <v>136.2452695833221</v>
+        <v>149.2844596491535</v>
       </c>
       <c r="H202" t="n">
-        <v>0.7063558577916418</v>
+        <v>0.9767562482763124</v>
       </c>
       <c r="I202" t="n">
-        <v>8386.407281446476</v>
+        <v>18267.2659561658</v>
       </c>
       <c r="J202" t="n">
-        <v>7158026.382459335</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45083</v>
+        <v>45358</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>45189</v>
+        <v>45597</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1073.880805462452</v>
+        <v>2558.126724400853</v>
       </c>
       <c r="F203" t="n">
-        <v>142.5069104134203</v>
+        <v>142.3413632921965</v>
       </c>
       <c r="G203" t="n">
-        <v>136.2452695833221</v>
+        <v>149.2844596491535</v>
       </c>
       <c r="H203" t="n">
-        <v>0.6985842508617627</v>
+        <v>0.9842042963393035</v>
       </c>
       <c r="I203" t="n">
-        <v>4569.695911754639</v>
+        <v>17283.95963361425</v>
       </c>
       <c r="J203" t="n">
-        <v>7162596.07837109</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45084</v>
+        <v>45359</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>45189</v>
+        <v>45597</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>999.9849005058221</v>
+        <v>2288.58643960839</v>
       </c>
       <c r="F204" t="n">
-        <v>145.4996368516719</v>
+        <v>143.1752802980285</v>
       </c>
       <c r="G204" t="n">
-        <v>136.2452695833221</v>
+        <v>149.2844596491535</v>
       </c>
       <c r="H204" t="n">
-        <v>0.7086496765337627</v>
+        <v>1.000672742008207</v>
       </c>
       <c r="I204" t="n">
-        <v>6437.319461730947</v>
+        <v>13554.32203262373</v>
       </c>
       <c r="J204" t="n">
-        <v>7169033.397832821</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45085</v>
+        <v>45362</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>45189</v>
+        <v>45597</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>927.9107092773507</v>
+        <v>2043.978739063773</v>
       </c>
       <c r="F205" t="n">
-        <v>148.8547989129443</v>
+        <v>144.2584211951808</v>
       </c>
       <c r="G205" t="n">
-        <v>136.2452695833221</v>
+        <v>149.2844596491535</v>
       </c>
       <c r="H205" t="n">
-        <v>0.7151289944803141</v>
+        <v>0.9953608931875031</v>
       </c>
       <c r="I205" t="n">
-        <v>8254.367835800029</v>
+        <v>9891.69791464288</v>
       </c>
       <c r="J205" t="n">
-        <v>7177287.765668621</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45086</v>
+        <v>45363</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>45189</v>
+        <v>45597</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>884.8935331297356</v>
+        <v>1823.213414785816</v>
       </c>
       <c r="F206" t="n">
-        <v>148.0369124560143</v>
+        <v>145.5332499604332</v>
       </c>
       <c r="G206" t="n">
-        <v>136.2452695833221</v>
+        <v>149.2844596491535</v>
       </c>
       <c r="H206" t="n">
-        <v>0.7179096087787794</v>
+        <v>0.9953810705188233</v>
       </c>
       <c r="I206" t="n">
-        <v>7382.727792487809</v>
+        <v>6499.034039335309</v>
       </c>
       <c r="J206" t="n">
-        <v>7184670.493461109</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45089</v>
+        <v>45364</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>45189</v>
+        <v>45597</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>850.7337770920049</v>
+        <v>1625.567989118332</v>
       </c>
       <c r="F207" t="n">
-        <v>145.9736180926843</v>
+        <v>146.8847754073427</v>
       </c>
       <c r="G207" t="n">
-        <v>136.2452695833221</v>
+        <v>149.2844596491535</v>
       </c>
       <c r="H207" t="n">
-        <v>0.7188244535707943</v>
+        <v>1.010641745613335</v>
       </c>
       <c r="I207" t="n">
-        <v>5845.012578081111</v>
+        <v>3597.509838881316</v>
       </c>
       <c r="J207" t="n">
-        <v>7190515.50603919</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45091</v>
+        <v>45365</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>45189</v>
+        <v>45597</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>791.65746089613</v>
+        <v>1457.765919756703</v>
       </c>
       <c r="F208" t="n">
-        <v>148.6874985589756</v>
+        <v>147.3928158021056</v>
       </c>
       <c r="G208" t="n">
-        <v>136.2452695833221</v>
+        <v>149.2844596491535</v>
       </c>
       <c r="H208" t="n">
-        <v>0.7237301535034215</v>
+        <v>1.04258114949943</v>
       </c>
       <c r="I208" t="n">
-        <v>7031.153455419523</v>
+        <v>2485.546685511605</v>
       </c>
       <c r="J208" t="n">
-        <v>7197546.65949461</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45092</v>
+        <v>45366</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>45189</v>
+        <v>45597</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>762.498795778526</v>
+        <v>1299.80421291486</v>
       </c>
       <c r="F209" t="n">
-        <v>146.2152847383386</v>
+        <v>148.7538979908364</v>
       </c>
       <c r="G209" t="n">
-        <v>136.2452695833221</v>
+        <v>149.2844596491535</v>
       </c>
       <c r="H209" t="n">
-        <v>0.7190644522202039</v>
+        <v>1.047385039644094</v>
       </c>
       <c r="I209" t="n">
-        <v>5373.04084526888</v>
+        <v>447.0755667233899</v>
       </c>
       <c r="J209" t="n">
-        <v>7202919.700339879</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45356</v>
+        <v>45369</v>
       </c>
       <c r="B210" s="2" t="n">
         <v>45597</v>
@@ -7995,27 +7995,27 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>5049.093593473359</v>
+        <v>1163.364200511534</v>
       </c>
       <c r="F210" t="n">
-        <v>142.6576783930215</v>
+        <v>149.5590804856986</v>
       </c>
       <c r="G210" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H210" t="n">
-        <v>0.9767561424525582</v>
+        <v>1.065902888517625</v>
       </c>
       <c r="I210" t="n">
-        <v>32517.04977466086</v>
+        <v>-536.5742950117294</v>
       </c>
       <c r="J210" t="n">
-        <v>1031554.696632428</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45358</v>
+        <v>45370</v>
       </c>
       <c r="B211" s="2" t="n">
         <v>45597</v>
@@ -8031,27 +8031,27 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>4553.650398038309</v>
+        <v>1051.803320305136</v>
       </c>
       <c r="F211" t="n">
-        <v>142.3413481222811</v>
+        <v>148.8593543165481</v>
       </c>
       <c r="G211" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H211" t="n">
-        <v>0.9842045047829663</v>
+        <v>1.075679197804115</v>
       </c>
       <c r="I211" t="n">
-        <v>30766.76601908899</v>
+        <v>250.8548374026044</v>
       </c>
       <c r="J211" t="n">
-        <v>1741260.965204941</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45359</v>
+        <v>45371</v>
       </c>
       <c r="B212" s="2" t="n">
         <v>45597</v>
@@ -8067,27 +8067,27 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>4073.849214928675</v>
+        <v>943.6964338674563</v>
       </c>
       <c r="F212" t="n">
-        <v>143.1752650911619</v>
+        <v>149.3002520873777</v>
       </c>
       <c r="G212" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H212" t="n">
-        <v>1.000672848148213</v>
+        <v>1.075694432323026</v>
       </c>
       <c r="I212" t="n">
-        <v>24127.73448049252</v>
+        <v>-191.0022828876394</v>
       </c>
       <c r="J212" t="n">
-        <v>2372790.875454761</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45362</v>
+        <v>45372</v>
       </c>
       <c r="B213" s="2" t="n">
         <v>45597</v>
@@ -8103,27 +8103,27 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>3638.429829443346</v>
+        <v>853.6479995490533</v>
       </c>
       <c r="F213" t="n">
-        <v>144.2584060869719</v>
+        <v>148.5238555304717</v>
       </c>
       <c r="G213" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H213" t="n">
-        <v>0.995360997257177</v>
+        <v>1.105883293222366</v>
       </c>
       <c r="I213" t="n">
-        <v>17607.99191619697</v>
+        <v>489.9927089324713</v>
       </c>
       <c r="J213" t="n">
-        <v>2932880.947141945</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45363</v>
+        <v>45373</v>
       </c>
       <c r="B214" s="2" t="n">
         <v>45597</v>
@@ -8139,27 +8139,27 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>3245.451262421072</v>
+        <v>767.5325703906626</v>
       </c>
       <c r="F214" t="n">
-        <v>145.5332499604332</v>
+        <v>148.6484599584074</v>
       </c>
       <c r="G214" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H214" t="n">
-        <v>0.9953810711039707</v>
+        <v>1.102770744265325</v>
       </c>
       <c r="I214" t="n">
-        <v>11568.74892232852</v>
+        <v>344.9246211136973</v>
       </c>
       <c r="J214" t="n">
-        <v>3428339.514794931</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45364</v>
+        <v>45376</v>
       </c>
       <c r="B215" s="2" t="n">
         <v>45597</v>
@@ -8175,27 +8175,27 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>2893.62816204111</v>
+        <v>688.906530834577</v>
       </c>
       <c r="F215" t="n">
-        <v>146.8847754073427</v>
+        <v>149.0318569191713</v>
       </c>
       <c r="G215" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H215" t="n">
-        <v>1.010641746145427</v>
+        <v>1.104287650418817</v>
       </c>
       <c r="I215" t="n">
-        <v>6403.826756365322</v>
+        <v>45.4658713858945</v>
       </c>
       <c r="J215" t="n">
-        <v>3866177.091001432</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45365</v>
+        <v>45377</v>
       </c>
       <c r="B216" s="2" t="n">
         <v>45597</v>
@@ -8211,27 +8211,27 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>2594.928386452554</v>
+        <v>615.8105025600687</v>
       </c>
       <c r="F216" t="n">
-        <v>147.3928158021056</v>
+        <v>150.0287565234655</v>
       </c>
       <c r="G216" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H216" t="n">
-        <v>1.042581150029677</v>
+        <v>1.085175568195309</v>
       </c>
       <c r="I216" t="n">
-        <v>4424.452213263139</v>
+        <v>-573.2595048751174</v>
       </c>
       <c r="J216" t="n">
-        <v>4257499.797112015</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45366</v>
+        <v>45378</v>
       </c>
       <c r="B217" s="2" t="n">
         <v>45597</v>
@@ -8247,27 +8247,27 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>2313.745165263788</v>
+        <v>560.0564820981812</v>
       </c>
       <c r="F217" t="n">
-        <v>148.7538979908364</v>
+        <v>148.4471826589641</v>
       </c>
       <c r="G217" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H217" t="n">
-        <v>1.047385040169523</v>
+        <v>1.091709567169718</v>
       </c>
       <c r="I217" t="n">
-        <v>795.8267258528788</v>
+        <v>364.4127440384506</v>
       </c>
       <c r="J217" t="n">
-        <v>4603270.062854161</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45369</v>
+        <v>45379</v>
       </c>
       <c r="B218" s="2" t="n">
         <v>45597</v>
@@ -8283,27 +8283,27 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>2070.87211106835</v>
+        <v>496.6689134352521</v>
       </c>
       <c r="F218" t="n">
-        <v>149.5590804856986</v>
+        <v>150.6326082284995</v>
       </c>
       <c r="G218" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H218" t="n">
-        <v>1.065902889040244</v>
+        <v>1.075792859434367</v>
       </c>
       <c r="I218" t="n">
-        <v>-955.1409116486178</v>
+        <v>-762.2646780114218</v>
       </c>
       <c r="J218" t="n">
-        <v>4911077.509765724</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45370</v>
+        <v>45383</v>
       </c>
       <c r="B219" s="2" t="n">
         <v>45597</v>
@@ -8319,27 +8319,27 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1872.28589532003</v>
+        <v>443.7771311772693</v>
       </c>
       <c r="F219" t="n">
-        <v>148.85933918636</v>
+        <v>151.7061694363543</v>
       </c>
       <c r="G219" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H219" t="n">
-        <v>1.07567930688368</v>
+        <v>1.081194644274752</v>
       </c>
       <c r="I219" t="n">
-        <v>446.5680610607175</v>
+        <v>-1157.510708448448</v>
       </c>
       <c r="J219" t="n">
-        <v>5190677.887033127</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45371</v>
+        <v>45384</v>
       </c>
       <c r="B220" s="2" t="n">
         <v>45597</v>
@@ -8355,27 +8355,27 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>1679.847656779772</v>
+        <v>394.9026140887621</v>
       </c>
       <c r="F220" t="n">
-        <v>149.3002520873777</v>
+        <v>153.4123557592436</v>
       </c>
       <c r="G220" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H220" t="n">
-        <v>1.075694432894432</v>
+        <v>1.088493234061243</v>
       </c>
       <c r="I220" t="n">
-        <v>-339.9978275147883</v>
+        <v>-1703.807993759259</v>
       </c>
       <c r="J220" t="n">
-        <v>5440799.570003709</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45372</v>
+        <v>45385</v>
       </c>
       <c r="B221" s="2" t="n">
         <v>45597</v>
@@ -8391,27 +8391,27 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1519.554798433556</v>
+        <v>355.2520422470321</v>
       </c>
       <c r="F221" t="n">
-        <v>148.5238707981283</v>
+        <v>153.4602674714716</v>
       </c>
       <c r="G221" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H221" t="n">
-        <v>1.105883282520145</v>
+        <v>1.125554506898637</v>
       </c>
       <c r="I221" t="n">
-        <v>872.1990419711246</v>
+        <v>-1549.756268367247</v>
       </c>
       <c r="J221" t="n">
-        <v>5668234.128640872</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45373</v>
+        <v>45386</v>
       </c>
       <c r="B222" s="2" t="n">
         <v>45597</v>
@@ -8427,27 +8427,27 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1366.263285100005</v>
+        <v>318.2907384244047</v>
       </c>
       <c r="F222" t="n">
-        <v>148.6484599584074</v>
+        <v>154.1312565027342</v>
       </c>
       <c r="G222" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H222" t="n">
-        <v>1.102770744786227</v>
+        <v>1.130528599239971</v>
       </c>
       <c r="I222" t="n">
-        <v>613.990681483147</v>
+        <v>-1602.085375640531</v>
       </c>
       <c r="J222" t="n">
-        <v>5872555.043231669</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45376</v>
+        <v>45387</v>
       </c>
       <c r="B223" s="2" t="n">
         <v>45597</v>
@@ -8463,27 +8463,27 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1226.303143991594</v>
+        <v>285.4809204529578</v>
       </c>
       <c r="F223" t="n">
-        <v>149.0318720814161</v>
+        <v>154.6392799662655</v>
       </c>
       <c r="G223" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H223" t="n">
-        <v>1.104287642385416</v>
+        <v>1.141250454137385</v>
       </c>
       <c r="I223" t="n">
-        <v>80.91392567858813</v>
+        <v>-1581.971364176763</v>
       </c>
       <c r="J223" t="n">
-        <v>6055475.12437142</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45377</v>
+        <v>45390</v>
       </c>
       <c r="B224" s="2" t="n">
         <v>45597</v>
@@ -8499,27 +8499,27 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1096.187183377182</v>
+        <v>256.3886293220013</v>
       </c>
       <c r="F224" t="n">
-        <v>150.0287411418357</v>
+        <v>154.9459871493218</v>
       </c>
       <c r="G224" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H224" t="n">
-        <v>1.085175781146199</v>
+        <v>1.13919796863465</v>
       </c>
       <c r="I224" t="n">
-        <v>-1020.426472283966</v>
+        <v>-1499.394823122595</v>
       </c>
       <c r="J224" t="n">
-        <v>6217893.854604745</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45378</v>
+        <v>45391</v>
       </c>
       <c r="B225" s="2" t="n">
         <v>45597</v>
@@ -8535,27 +8535,27 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>996.941099841761</v>
+        <v>230.4325979571267</v>
       </c>
       <c r="F225" t="n">
-        <v>148.4471524302657</v>
+        <v>155.1377055851116</v>
       </c>
       <c r="G225" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H225" t="n">
-        <v>1.091709788512572</v>
+        <v>1.131394772526459</v>
       </c>
       <c r="I225" t="n">
-        <v>648.7112129635772</v>
+        <v>-1391.778674844284</v>
       </c>
       <c r="J225" t="n">
-        <v>6367184.344442879</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45379</v>
+        <v>45392</v>
       </c>
       <c r="B226" s="2" t="n">
         <v>45597</v>
@@ -8571,27 +8571,27 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>884.1063675642432</v>
+        <v>206.9003487546178</v>
       </c>
       <c r="F226" t="n">
-        <v>150.6326234302145</v>
+        <v>155.4827610525776</v>
       </c>
       <c r="G226" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H226" t="n">
-        <v>1.0757927522431</v>
+        <v>1.086959918294655</v>
       </c>
       <c r="I226" t="n">
-        <v>-1356.899360048249</v>
+        <v>-1321.039480510989</v>
       </c>
       <c r="J226" t="n">
-        <v>6497645.807260342</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45383</v>
+        <v>45393</v>
       </c>
       <c r="B227" s="2" t="n">
         <v>45597</v>
@@ -8607,27 +8607,27 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>789.955272889469</v>
+        <v>184.5799781733947</v>
       </c>
       <c r="F227" t="n">
-        <v>151.7061694363543</v>
+        <v>156.8343048102333</v>
       </c>
       <c r="G227" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H227" t="n">
-        <v>1.08119454632761</v>
+        <v>1.083235095381449</v>
       </c>
       <c r="I227" t="n">
-        <v>-2060.452473382683</v>
+        <v>-1427.993907924201</v>
       </c>
       <c r="J227" t="n">
-        <v>6613365.990789688</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45384</v>
+        <v>45394</v>
       </c>
       <c r="B228" s="2" t="n">
         <v>45597</v>
@@ -8643,495 +8643,495 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>702.9551104845922</v>
+        <v>167.4601330024199</v>
       </c>
       <c r="F228" t="n">
-        <v>153.4123557592436</v>
+        <v>155.5594533260933</v>
       </c>
       <c r="G228" t="n">
         <v>149.2844596491535</v>
       </c>
       <c r="H228" t="n">
-        <v>1.088493234529389</v>
+        <v>1.101600060455777</v>
       </c>
       <c r="I228" t="n">
-        <v>-3032.901008420178</v>
+        <v>-1082.06027006473</v>
       </c>
       <c r="J228" t="n">
-        <v>6715142.188265288</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45385</v>
+        <v>45356</v>
       </c>
       <c r="B229" s="2" t="n">
         <v>45597</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>632.3741725687061</v>
+        <v>2770.524756439381</v>
       </c>
       <c r="F229" t="n">
-        <v>153.460282697925</v>
+        <v>140.4244590645935</v>
       </c>
       <c r="G229" t="n">
-        <v>149.2844596491535</v>
+        <v>128.0638234347354</v>
       </c>
       <c r="H229" t="n">
-        <v>1.125554494562773</v>
+        <v>0.9767562482763124</v>
       </c>
       <c r="I229" t="n">
-        <v>-2758.687191070185</v>
+        <v>33801.9420263108</v>
       </c>
       <c r="J229" t="n">
-        <v>6806669.133176408</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45386</v>
+        <v>45358</v>
       </c>
       <c r="B230" s="2" t="n">
         <v>45597</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>566.5805071388871</v>
+        <v>2517.719312735709</v>
       </c>
       <c r="F230" t="n">
-        <v>154.1312412334997</v>
+        <v>141.181980403499</v>
       </c>
       <c r="G230" t="n">
-        <v>149.2844596491535</v>
+        <v>128.0638234347354</v>
       </c>
       <c r="H230" t="n">
-        <v>1.130528710970983</v>
+        <v>0.9842042963393035</v>
       </c>
       <c r="I230" t="n">
-        <v>-2851.819049120216</v>
+        <v>32624.80119584913</v>
       </c>
       <c r="J230" t="n">
-        <v>6888293.25190219</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45387</v>
+        <v>45359</v>
       </c>
       <c r="B231" s="2" t="n">
         <v>45597</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>508.1766607447016</v>
+        <v>2290.126067845728</v>
       </c>
       <c r="F231" t="n">
-        <v>154.6392647329711</v>
+        <v>144.3772214935058</v>
       </c>
       <c r="G231" t="n">
-        <v>149.2844596491535</v>
+        <v>128.0638234347354</v>
       </c>
       <c r="H231" t="n">
-        <v>1.141250566342981</v>
+        <v>1.000672742008207</v>
       </c>
       <c r="I231" t="n">
-        <v>-2816.015564190121</v>
+        <v>36993.13527403911</v>
       </c>
       <c r="J231" t="n">
-        <v>6961245.285945827</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45390</v>
+        <v>45362</v>
       </c>
       <c r="B232" s="2" t="n">
         <v>45597</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>456.3902360279905</v>
+        <v>2034.496503370784</v>
       </c>
       <c r="F232" t="n">
-        <v>154.9459871493218</v>
+        <v>144.6879935100119</v>
       </c>
       <c r="G232" t="n">
-        <v>149.2844596491535</v>
+        <v>128.0638234347354</v>
       </c>
       <c r="H232" t="n">
-        <v>1.139197969185116</v>
+        <v>0.9953608931875031</v>
       </c>
       <c r="I232" t="n">
-        <v>-2669.030834298961</v>
+        <v>33496.13413835828</v>
       </c>
       <c r="J232" t="n">
-        <v>7026623.059923898</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45391</v>
+        <v>45363</v>
       </c>
       <c r="B233" s="2" t="n">
         <v>45597</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>410.1866700664292</v>
+        <v>1814.792120593784</v>
       </c>
       <c r="F233" t="n">
-        <v>155.1376903404505</v>
+        <v>145.9602317395855</v>
       </c>
       <c r="G233" t="n">
-        <v>149.2844596491535</v>
+        <v>128.0638234347354</v>
       </c>
       <c r="H233" t="n">
-        <v>1.131394883450396</v>
+        <v>0.9953810705188233</v>
       </c>
       <c r="I233" t="n">
-        <v>-2477.460325638895</v>
+        <v>32187.74925644293</v>
       </c>
       <c r="J233" t="n">
-        <v>7085303.551875167</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45392</v>
+        <v>45364</v>
       </c>
       <c r="B234" s="2" t="n">
         <v>45597</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>368.2974943599673</v>
+        <v>1642.866870135711</v>
       </c>
       <c r="F234" t="n">
-        <v>155.4827762682185</v>
+        <v>149.5633647095761</v>
       </c>
       <c r="G234" t="n">
-        <v>149.2844596491535</v>
+        <v>128.0638234347354</v>
       </c>
       <c r="H234" t="n">
-        <v>1.086959910408609</v>
+        <v>1.010641745613335</v>
       </c>
       <c r="I234" t="n">
-        <v>-2351.550845595953</v>
+        <v>35057.8943175712</v>
       </c>
       <c r="J234" t="n">
-        <v>7137864.367099691</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45393</v>
+        <v>45365</v>
       </c>
       <c r="B235" s="2" t="n">
         <v>45597</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>328.5656623203769</v>
+        <v>1519.839268321038</v>
       </c>
       <c r="F235" t="n">
-        <v>156.8343048102333</v>
+        <v>154.8175084071284</v>
       </c>
       <c r="G235" t="n">
-        <v>149.2844596491535</v>
+        <v>128.0638234347354</v>
       </c>
       <c r="H235" t="n">
-        <v>1.083235192027618</v>
+        <v>1.04258114949943</v>
       </c>
       <c r="I235" t="n">
-        <v>-2541.932059964928</v>
+        <v>40418.005458699</v>
       </c>
       <c r="J235" t="n">
-        <v>7184310.870214292</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45394</v>
+        <v>45366</v>
       </c>
       <c r="B236" s="2" t="n">
         <v>45597</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>298.0911042286021</v>
+        <v>1361.395487073392</v>
       </c>
       <c r="F236" t="n">
-        <v>155.5594533260933</v>
+        <v>156.9541171326336</v>
       </c>
       <c r="G236" t="n">
-        <v>149.2844596491535</v>
+        <v>128.0638234347354</v>
       </c>
       <c r="H236" t="n">
-        <v>1.10160006099719</v>
+        <v>1.047385039644094</v>
       </c>
       <c r="I236" t="n">
-        <v>-1926.145255962706</v>
+        <v>39113.18357144159</v>
       </c>
       <c r="J236" t="n">
-        <v>7226829.468917539</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45397</v>
+        <v>45369</v>
       </c>
       <c r="B237" s="2" t="n">
         <v>45597</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>272.1860282558478</v>
+        <v>1240.033261723242</v>
       </c>
       <c r="F237" t="n">
-        <v>153.3069283529881</v>
+        <v>160.5863912682284</v>
       </c>
       <c r="G237" t="n">
-        <v>149.2844596491535</v>
+        <v>128.0638234347354</v>
       </c>
       <c r="H237" t="n">
-        <v>1.094970254586557</v>
+        <v>1.065902888517625</v>
       </c>
       <c r="I237" t="n">
-        <v>-1145.651210470465</v>
+        <v>40130.56161932853</v>
       </c>
       <c r="J237" t="n">
-        <v>7266266.170429102</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45398</v>
+        <v>45370</v>
       </c>
       <c r="B238" s="2" t="n">
         <v>45597</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>249.0441836296563</v>
+        <v>1131.402951833534</v>
       </c>
       <c r="F238" t="n">
-        <v>150.7764083926603</v>
+        <v>161.3050456723367</v>
       </c>
       <c r="G238" t="n">
-        <v>149.2844596491535</v>
+        <v>128.0638234347354</v>
       </c>
       <c r="H238" t="n">
-        <v>1.090957286882779</v>
+        <v>1.075679197804115</v>
       </c>
       <c r="I238" t="n">
-        <v>-418.0341898213211</v>
+        <v>37428.10222735519</v>
       </c>
       <c r="J238" t="n">
-        <v>7302980.089588221</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45399</v>
+        <v>45371</v>
       </c>
       <c r="B239" s="2" t="n">
         <v>45597</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>225.990686528875</v>
+        <v>1015.128999714317</v>
       </c>
       <c r="F239" t="n">
-        <v>149.520741564391</v>
+        <v>161.7809489192039</v>
       </c>
       <c r="G239" t="n">
-        <v>149.2844596491535</v>
+        <v>128.0638234347354</v>
       </c>
       <c r="H239" t="n">
-        <v>1.091474832423123</v>
+        <v>1.075694432323026</v>
       </c>
       <c r="I239" t="n">
-        <v>-95.56863414412224</v>
+        <v>34064.73024006196</v>
       </c>
       <c r="J239" t="n">
-        <v>7336579.247356376</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45400</v>
+        <v>45372</v>
       </c>
       <c r="B240" s="2" t="n">
         <v>45597</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>201.8750995021402</v>
+        <v>944.0350609939918</v>
       </c>
       <c r="F240" t="n">
-        <v>150.6230427670798</v>
+        <v>165.461757032261</v>
       </c>
       <c r="G240" t="n">
-        <v>149.2844596491535</v>
+        <v>128.0638234347354</v>
       </c>
       <c r="H240" t="n">
-        <v>1.074387742520409</v>
+        <v>1.105883293222366</v>
       </c>
       <c r="I240" t="n">
-        <v>-307.8976190554858</v>
+        <v>35153.83960058016</v>
       </c>
       <c r="J240" t="n">
-        <v>7366370.493864184</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45401</v>
+        <v>45373</v>
       </c>
       <c r="B241" s="2" t="n">
         <v>45597</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>179.8200095049615</v>
+        <v>846.4124638975887</v>
       </c>
       <c r="F241" t="n">
-        <v>152.1662509441376</v>
+        <v>165.1315408507466</v>
       </c>
       <c r="G241" t="n">
-        <v>149.2844596491535</v>
+        <v>128.0638234347354</v>
       </c>
       <c r="H241" t="n">
-        <v>1.032884045268992</v>
+        <v>1.102770744265325</v>
       </c>
       <c r="I241" t="n">
-        <v>-551.75915424666</v>
+        <v>31239.08450873362</v>
       </c>
       <c r="J241" t="n">
-        <v>7392629.5122468</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45356</v>
+        <v>45376</v>
       </c>
       <c r="B242" s="2" t="n">
         <v>45597</v>
@@ -9147,27 +9147,27 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>4931.733181242963</v>
+        <v>760.7509742934931</v>
       </c>
       <c r="F242" t="n">
-        <v>140.4244437761985</v>
+        <v>165.7822329680592</v>
       </c>
       <c r="G242" t="n">
         <v>128.0638234347354</v>
       </c>
       <c r="H242" t="n">
-        <v>0.9767561424525582</v>
+        <v>1.104287650418817</v>
       </c>
       <c r="I242" t="n">
-        <v>58771.23221053087</v>
+        <v>28572.53595321491</v>
       </c>
       <c r="J242" t="n">
-        <v>7451400.744457331</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45358</v>
+        <v>45377</v>
       </c>
       <c r="B243" s="2" t="n">
         <v>45597</v>
@@ -9183,27 +9183,27 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>4481.723234956051</v>
+        <v>668.2625120162612</v>
       </c>
       <c r="F243" t="n">
-        <v>141.18199528755</v>
+        <v>163.9952582067438</v>
       </c>
       <c r="G243" t="n">
         <v>128.0638234347354</v>
       </c>
       <c r="H243" t="n">
-        <v>0.9842045047829663</v>
+        <v>1.085175568195309</v>
       </c>
       <c r="I243" t="n">
-        <v>57157.26553922835</v>
+        <v>23904.65554565712</v>
       </c>
       <c r="J243" t="n">
-        <v>7508558.009996559</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45359</v>
+        <v>45378</v>
       </c>
       <c r="B244" s="2" t="n">
         <v>45597</v>
@@ -9219,27 +9219,27 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>4076.590296829038</v>
+        <v>611.4190196620002</v>
       </c>
       <c r="F244" t="n">
-        <v>144.3772214935058</v>
+        <v>163.2571632464226</v>
       </c>
       <c r="G244" t="n">
         <v>128.0638234347354</v>
       </c>
       <c r="H244" t="n">
-        <v>1.000672848148213</v>
+        <v>1.091709567169718</v>
       </c>
       <c r="I244" t="n">
-        <v>65894.76792015351</v>
+        <v>21420.00150457008</v>
       </c>
       <c r="J244" t="n">
-        <v>7574452.777916712</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45362</v>
+        <v>45379</v>
       </c>
       <c r="B245" s="2" t="n">
         <v>45597</v>
@@ -9255,27 +9255,27 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>3621.551143484989</v>
+        <v>534.3128705766701</v>
       </c>
       <c r="F245" t="n">
-        <v>144.6879935100119</v>
+        <v>163.2280374520017</v>
       </c>
       <c r="G245" t="n">
         <v>128.0638234347354</v>
       </c>
       <c r="H245" t="n">
-        <v>0.995360997257177</v>
+        <v>1.075792859434367</v>
       </c>
       <c r="I245" t="n">
-        <v>59348.94197088442</v>
+        <v>18703.15944674239</v>
       </c>
       <c r="J245" t="n">
-        <v>7633801.719887597</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45363</v>
+        <v>45383</v>
       </c>
       <c r="B246" s="2" t="n">
         <v>45597</v>
@@ -9291,27 +9291,27 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>3230.460753804421</v>
+        <v>479.8094574804776</v>
       </c>
       <c r="F246" t="n">
-        <v>145.9602317395855</v>
+        <v>165.2092552224854</v>
       </c>
       <c r="G246" t="n">
         <v>128.0638234347354</v>
       </c>
       <c r="H246" t="n">
-        <v>0.9953810711039707</v>
+        <v>1.081194644274752</v>
       </c>
       <c r="I246" t="n">
-        <v>57031.86469784634</v>
+        <v>17745.92168190202</v>
       </c>
       <c r="J246" t="n">
-        <v>7690833.584585443</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45364</v>
+        <v>45384</v>
       </c>
       <c r="B247" s="2" t="n">
         <v>45597</v>
@@ -9327,27 +9327,27 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>2924.421418380811</v>
+        <v>429.8488235487158</v>
       </c>
       <c r="F247" t="n">
-        <v>149.5633647095761</v>
+        <v>168.181085253276</v>
       </c>
       <c r="G247" t="n">
         <v>128.0638234347354</v>
       </c>
       <c r="H247" t="n">
-        <v>1.010641746145427</v>
+        <v>1.088493234061243</v>
       </c>
       <c r="I247" t="n">
-        <v>63069.6825761317</v>
+        <v>17175.54769189226</v>
       </c>
       <c r="J247" t="n">
-        <v>7753903.267161575</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45365</v>
+        <v>45385</v>
       </c>
       <c r="B248" s="2" t="n">
         <v>45597</v>
@@ -9363,27 +9363,27 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>2705.423421392358</v>
+        <v>399.8555372360922</v>
       </c>
       <c r="F248" t="n">
-        <v>154.8175084071284</v>
+        <v>173.9596567609401</v>
       </c>
       <c r="G248" t="n">
         <v>128.0638234347354</v>
       </c>
       <c r="H248" t="n">
-        <v>1.042581150029677</v>
+        <v>1.125554506898637</v>
       </c>
       <c r="I248" t="n">
-        <v>75010.5467466214</v>
+        <v>18287.69430539769</v>
       </c>
       <c r="J248" t="n">
-        <v>7828913.813908197</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45366</v>
+        <v>45386</v>
       </c>
       <c r="B249" s="2" t="n">
         <v>45597</v>
@@ -9399,27 +9399,27 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>2423.382072861853</v>
+        <v>359.8367826619982</v>
       </c>
       <c r="F249" t="n">
-        <v>156.9541171326336</v>
+        <v>175.4844505746171</v>
       </c>
       <c r="G249" t="n">
         <v>128.0638234347354</v>
       </c>
       <c r="H249" t="n">
-        <v>1.047385040169523</v>
+        <v>1.130528599239971</v>
       </c>
       <c r="I249" t="n">
-        <v>72923.43491838276</v>
+        <v>17006.08330907906</v>
       </c>
       <c r="J249" t="n">
-        <v>7901837.24882658</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45369</v>
+        <v>45387</v>
       </c>
       <c r="B250" s="2" t="n">
         <v>45597</v>
@@ -9435,27 +9435,27 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>2207.348566020623</v>
+        <v>325.8052301144968</v>
       </c>
       <c r="F250" t="n">
-        <v>160.5863912682284</v>
+        <v>177.7278951615768</v>
       </c>
       <c r="G250" t="n">
         <v>128.0638234347354</v>
       </c>
       <c r="H250" t="n">
-        <v>1.065902889040244</v>
+        <v>1.141250454137385</v>
       </c>
       <c r="I250" t="n">
-        <v>76143.08369512288</v>
+        <v>16128.65948805706</v>
       </c>
       <c r="J250" t="n">
-        <v>7977980.332521703</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45370</v>
+        <v>45390</v>
       </c>
       <c r="B251" s="2" t="n">
         <v>45597</v>
@@ -9471,27 +9471,27 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>2013.97919416594</v>
+        <v>292.0774057046461</v>
       </c>
       <c r="F251" t="n">
-        <v>161.3050456723367</v>
+        <v>177.7570278694293</v>
       </c>
       <c r="G251" t="n">
         <v>128.0638234347354</v>
       </c>
       <c r="H251" t="n">
-        <v>1.07567930688368</v>
+        <v>1.13919796863465</v>
       </c>
       <c r="I251" t="n">
-        <v>71666.84621704101</v>
+        <v>14467.5065457942</v>
       </c>
       <c r="J251" t="n">
-        <v>8049647.178738744</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45371</v>
+        <v>45391</v>
       </c>
       <c r="B252" s="2" t="n">
         <v>45597</v>
@@ -9507,27 +9507,27 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>1807.002772508758</v>
+        <v>260.7102367483843</v>
       </c>
       <c r="F252" t="n">
-        <v>161.7809489192039</v>
+        <v>176.7566920821114</v>
       </c>
       <c r="G252" t="n">
         <v>128.0638234347354</v>
       </c>
       <c r="H252" t="n">
-        <v>1.075694432894432</v>
+        <v>1.131394772526459</v>
       </c>
       <c r="I252" t="n">
-        <v>65227.60901934093</v>
+        <v>12652.99487585716</v>
       </c>
       <c r="J252" t="n">
-        <v>8114874.787758085</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45372</v>
+        <v>45392</v>
       </c>
       <c r="B253" s="2" t="n">
         <v>45597</v>
@@ -9543,27 +9543,27 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>1680.450248460938</v>
+        <v>224.8923861774551</v>
       </c>
       <c r="F253" t="n">
-        <v>165.4617722366118</v>
+        <v>170.1914594402145</v>
       </c>
       <c r="G253" t="n">
         <v>128.0638234347354</v>
       </c>
       <c r="H253" t="n">
-        <v>1.105883282520145</v>
+        <v>1.086959918294655</v>
       </c>
       <c r="I253" t="n">
-        <v>69202.17943567608</v>
+        <v>9438.183861743397</v>
       </c>
       <c r="J253" t="n">
-        <v>8184076.967193761</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45373</v>
+        <v>45393</v>
       </c>
       <c r="B254" s="2" t="n">
         <v>45597</v>
@@ -9579,27 +9579,27 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1506.675180483809</v>
+        <v>199.9435102621629</v>
       </c>
       <c r="F254" t="n">
-        <v>165.1315408507466</v>
+        <v>171.07523134676</v>
       </c>
       <c r="G254" t="n">
         <v>128.0638234347354</v>
       </c>
       <c r="H254" t="n">
-        <v>1.102770744786227</v>
+        <v>1.083235095381449</v>
       </c>
       <c r="I254" t="n">
-        <v>61322.67883905077</v>
+        <v>8567.844966254048</v>
       </c>
       <c r="J254" t="n">
-        <v>8245399.646032812</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45376</v>
+        <v>45394</v>
       </c>
       <c r="B255" s="2" t="n">
         <v>45597</v>
@@ -9615,670 +9615,22 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1354.191407728301</v>
+        <v>184.4740926393982</v>
       </c>
       <c r="F255" t="n">
-        <v>165.7822484269895</v>
+        <v>172.5708862844258</v>
       </c>
       <c r="G255" t="n">
         <v>128.0638234347354</v>
       </c>
       <c r="H255" t="n">
-        <v>1.104287642385416</v>
+        <v>1.101600060455777</v>
       </c>
       <c r="I255" t="n">
-        <v>56165.38180052621</v>
+        <v>8180.869463206228</v>
       </c>
       <c r="J255" t="n">
-        <v>8301565.027833338</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
-        <v>45377</v>
-      </c>
-      <c r="B256" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E256" t="n">
-        <v>1189.555783003785</v>
-      </c>
-      <c r="F256" t="n">
-        <v>163.9952736124188</v>
-      </c>
-      <c r="G256" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1.085175781146199</v>
-      </c>
-      <c r="I256" t="n">
-        <v>46176.44381431831</v>
-      </c>
-      <c r="J256" t="n">
-        <v>8347741.471647657</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B257" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E257" t="n">
-        <v>1088.37035726774</v>
-      </c>
-      <c r="F257" t="n">
-        <v>163.2571632464226</v>
-      </c>
-      <c r="G257" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1.091709788512572</v>
-      </c>
-      <c r="I257" t="n">
-        <v>41625.97909683701</v>
-      </c>
-      <c r="J257" t="n">
-        <v>8389367.450744493</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
-        <v>45379</v>
-      </c>
-      <c r="B258" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E258" t="n">
-        <v>951.1152224375872</v>
-      </c>
-      <c r="F258" t="n">
-        <v>163.2280374520017</v>
-      </c>
-      <c r="G258" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1.0757927522431</v>
-      </c>
-      <c r="I258" t="n">
-        <v>35816.33036375495</v>
-      </c>
-      <c r="J258" t="n">
-        <v>8425183.781108247</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="B259" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E259" t="n">
-        <v>854.0953328908327</v>
-      </c>
-      <c r="F259" t="n">
-        <v>165.2092401873103</v>
-      </c>
-      <c r="G259" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1.08119454632761</v>
-      </c>
-      <c r="I259" t="n">
-        <v>34153.85851817225</v>
-      </c>
-      <c r="J259" t="n">
-        <v>8459337.639626419</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
-        <v>45384</v>
-      </c>
-      <c r="B260" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E260" t="n">
-        <v>765.1618819403376</v>
-      </c>
-      <c r="F260" t="n">
-        <v>168.181085253276</v>
-      </c>
-      <c r="G260" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1.088493234529389</v>
-      </c>
-      <c r="I260" t="n">
-        <v>33279.27932627608</v>
-      </c>
-      <c r="J260" t="n">
-        <v>8492616.918952696</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
-        <v>45385</v>
-      </c>
-      <c r="B261" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E261" t="n">
-        <v>711.7715921801215</v>
-      </c>
-      <c r="F261" t="n">
-        <v>173.9596719139827</v>
-      </c>
-      <c r="G261" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1.125554494562773</v>
-      </c>
-      <c r="I261" t="n">
-        <v>36640.64921543407</v>
-      </c>
-      <c r="J261" t="n">
-        <v>8529257.56816813</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
-        <v>45386</v>
-      </c>
-      <c r="B262" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E262" t="n">
-        <v>640.5355303970119</v>
-      </c>
-      <c r="F262" t="n">
-        <v>175.4844505746171</v>
-      </c>
-      <c r="G262" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1.130528710970983</v>
-      </c>
-      <c r="I262" t="n">
-        <v>34223.43271074316</v>
-      </c>
-      <c r="J262" t="n">
-        <v>8563481.000878872</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
-        <v>45387</v>
-      </c>
-      <c r="B263" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E263" t="n">
-        <v>579.9569018771756</v>
-      </c>
-      <c r="F263" t="n">
-        <v>177.7278951615768</v>
-      </c>
-      <c r="G263" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1.141250566342981</v>
-      </c>
-      <c r="I263" t="n">
-        <v>32765.51123957644</v>
-      </c>
-      <c r="J263" t="n">
-        <v>8596246.512118449</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="B264" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E264" t="n">
-        <v>519.9188300390024</v>
-      </c>
-      <c r="F264" t="n">
-        <v>177.7570278694293</v>
-      </c>
-      <c r="G264" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1.139197969185116</v>
-      </c>
-      <c r="I264" t="n">
-        <v>29337.99794630786</v>
-      </c>
-      <c r="J264" t="n">
-        <v>8625584.510064756</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
-        <v>45391</v>
-      </c>
-      <c r="B265" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E265" t="n">
-        <v>464.0830997727139</v>
-      </c>
-      <c r="F265" t="n">
-        <v>176.7566920821114</v>
-      </c>
-      <c r="G265" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1.131394883450396</v>
-      </c>
-      <c r="I265" t="n">
-        <v>25482.68652594821</v>
-      </c>
-      <c r="J265" t="n">
-        <v>8651067.196590705</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
-        <v>45392</v>
-      </c>
-      <c r="B266" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E266" t="n">
-        <v>400.3246114732251</v>
-      </c>
-      <c r="F266" t="n">
-        <v>170.1914746590552</v>
-      </c>
-      <c r="G266" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1.086959910408609</v>
-      </c>
-      <c r="I266" t="n">
-        <v>18261.63490273075</v>
-      </c>
-      <c r="J266" t="n">
-        <v>8669328.831493435</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
-        <v>45393</v>
-      </c>
-      <c r="B267" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E267" t="n">
-        <v>355.913888317295</v>
-      </c>
-      <c r="F267" t="n">
-        <v>171.0752465288415</v>
-      </c>
-      <c r="G267" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1.083235192027618</v>
-      </c>
-      <c r="I267" t="n">
-        <v>16520.84044587339</v>
-      </c>
-      <c r="J267" t="n">
-        <v>8685849.67193931</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B268" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E268" t="n">
-        <v>328.377178600948</v>
-      </c>
-      <c r="F268" t="n">
-        <v>172.5708862844258</v>
-      </c>
-      <c r="G268" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1.10160006099719</v>
-      </c>
-      <c r="I268" t="n">
-        <v>16042.09184589509</v>
-      </c>
-      <c r="J268" t="n">
-        <v>8701891.763785204</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="B269" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E269" t="n">
-        <v>298.0356046542094</v>
-      </c>
-      <c r="F269" t="n">
-        <v>169.0648765926645</v>
-      </c>
-      <c r="G269" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1.094970254586557</v>
-      </c>
-      <c r="I269" t="n">
-        <v>13328.04823106516</v>
-      </c>
-      <c r="J269" t="n">
-        <v>8715219.812016269</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
-        <v>45398</v>
-      </c>
-      <c r="B270" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E270" t="n">
-        <v>271.6965668865464</v>
-      </c>
-      <c r="F270" t="n">
-        <v>165.6851232047269</v>
-      </c>
-      <c r="G270" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1.090957286882779</v>
-      </c>
-      <c r="I270" t="n">
-        <v>11103.85584764222</v>
-      </c>
-      <c r="J270" t="n">
-        <v>8726323.667863911</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
-        <v>45399</v>
-      </c>
-      <c r="B271" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E271" t="n">
-        <v>246.6631467082902</v>
-      </c>
-      <c r="F271" t="n">
-        <v>164.3934443687256</v>
-      </c>
-      <c r="G271" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1.091474832423123</v>
-      </c>
-      <c r="I271" t="n">
-        <v>9737.803193335609</v>
-      </c>
-      <c r="J271" t="n">
-        <v>8736061.471057247</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
-        <v>45400</v>
-      </c>
-      <c r="B272" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E272" t="n">
-        <v>216.8921324251872</v>
-      </c>
-      <c r="F272" t="n">
-        <v>163.0046222725253</v>
-      </c>
-      <c r="G272" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1.074387742520409</v>
-      </c>
-      <c r="I272" t="n">
-        <v>8104.820483263727</v>
-      </c>
-      <c r="J272" t="n">
-        <v>8744166.291540511</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
-        <v>45401</v>
-      </c>
-      <c r="B273" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>VLO</t>
-        </is>
-      </c>
-      <c r="E273" t="n">
-        <v>185.7332188377932</v>
-      </c>
-      <c r="F273" t="n">
-        <v>158.3040826501451</v>
-      </c>
-      <c r="G273" t="n">
-        <v>128.0638234347354</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1.032884045268992</v>
-      </c>
-      <c r="I273" t="n">
-        <v>5770.608045875604</v>
-      </c>
-      <c r="J273" t="n">
-        <v>8749936.899586387</v>
+        <v>4797600.142831545</v>
       </c>
     </row>
   </sheetData>
